--- a/DATA_MMM.xlsx
+++ b/DATA_MMM.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G312"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -429,461 +429,7154 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2">
-        <v>45352</v>
+        <v>44929</v>
       </c>
       <c r="B2">
-        <v>76.95652008056641</v>
+        <v>101.605354309082</v>
       </c>
       <c r="C2">
-        <v>76.95652008056641</v>
+        <v>102.5418090820312</v>
       </c>
       <c r="D2">
-        <v>75.99497985839844</v>
+        <v>100.6438140869141</v>
       </c>
       <c r="E2">
-        <v>76.80602264404297</v>
+        <v>102.3996658325195</v>
       </c>
       <c r="F2">
-        <v>76.80602264404297</v>
+        <v>93.58258819580078</v>
       </c>
       <c r="G2">
-        <v>4064128</v>
+        <v>3124909</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2">
-        <v>45355</v>
+        <v>44930</v>
       </c>
       <c r="B3">
-        <v>76.17057037353516</v>
+        <v>103.1354522705078</v>
       </c>
       <c r="C3">
-        <v>76.79766082763672</v>
+        <v>104.7575225830078</v>
       </c>
       <c r="D3">
-        <v>75.65217590332031</v>
+        <v>102.6003341674805</v>
       </c>
       <c r="E3">
-        <v>76.45484924316406</v>
+        <v>104.6404647827148</v>
       </c>
       <c r="F3">
-        <v>76.45484924316406</v>
+        <v>95.63044738769531</v>
       </c>
       <c r="G3">
-        <v>6678703</v>
+        <v>3312561</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2">
-        <v>45356</v>
+        <v>44931</v>
       </c>
       <c r="B4">
-        <v>76.64715576171875</v>
+        <v>103.8545150756836</v>
       </c>
       <c r="C4">
-        <v>78.08528137207031</v>
+        <v>104.155517578125</v>
       </c>
       <c r="D4">
-        <v>76.56354522705078</v>
+        <v>102.3913040161133</v>
       </c>
       <c r="E4">
-        <v>77.5</v>
+        <v>102.8093643188477</v>
       </c>
       <c r="F4">
-        <v>77.5</v>
+        <v>93.95700073242188</v>
       </c>
       <c r="G4">
-        <v>5251636</v>
+        <v>3117494</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2">
-        <v>45357</v>
+        <v>44932</v>
       </c>
       <c r="B5">
-        <v>78.16889953613281</v>
+        <v>104.2307662963867</v>
       </c>
       <c r="C5">
-        <v>78.33612060546875</v>
+        <v>106.2959899902344</v>
       </c>
       <c r="D5">
-        <v>76.86454772949219</v>
+        <v>103.4699020385742</v>
       </c>
       <c r="E5">
-        <v>77.35785675048828</v>
+        <v>105.9531784057617</v>
       </c>
       <c r="F5">
-        <v>77.35785675048828</v>
+        <v>96.83012390136719</v>
       </c>
       <c r="G5">
-        <v>3591349</v>
+        <v>2890732</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2">
-        <v>45358</v>
+        <v>44935</v>
       </c>
       <c r="B6">
-        <v>77.80100250244141</v>
+        <v>106.1872940063477</v>
       </c>
       <c r="C6">
-        <v>78.01003265380859</v>
+        <v>108.2441482543945</v>
       </c>
       <c r="D6">
-        <v>77.01505279541016</v>
+        <v>105.4431457519531</v>
       </c>
       <c r="E6">
-        <v>77.44147491455078</v>
+        <v>106.0117034912109</v>
       </c>
       <c r="F6">
-        <v>77.44147491455078</v>
+        <v>96.88360595703125</v>
       </c>
       <c r="G6">
-        <v>3751613</v>
+        <v>3434075</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2">
-        <v>45359</v>
+        <v>44936</v>
       </c>
       <c r="B7">
-        <v>78.16889953613281</v>
+        <v>106.2458190917969</v>
       </c>
       <c r="C7">
-        <v>79.21405029296875</v>
+        <v>107.1822738647461</v>
       </c>
       <c r="D7">
-        <v>77.90969848632812</v>
+        <v>105.9364547729492</v>
       </c>
       <c r="E7">
-        <v>78.51170349121094</v>
+        <v>107.1321105957031</v>
       </c>
       <c r="F7">
-        <v>78.51170349121094</v>
+        <v>97.90753936767578</v>
       </c>
       <c r="G7">
-        <v>4925846</v>
+        <v>1971128</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2">
-        <v>45362</v>
+        <v>44937</v>
       </c>
       <c r="B8">
-        <v>78.57859802246094</v>
+        <v>107.8010025024414</v>
       </c>
       <c r="C8">
-        <v>78.97993469238281</v>
+        <v>108.0183944702148</v>
       </c>
       <c r="D8">
-        <v>78.14381408691406</v>
+        <v>106.7056884765625</v>
       </c>
       <c r="E8">
-        <v>78.63712310791016</v>
+        <v>107.9598693847656</v>
       </c>
       <c r="F8">
-        <v>78.63712310791016</v>
+        <v>98.66403198242188</v>
       </c>
       <c r="G8">
-        <v>4206571</v>
+        <v>2408146</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2">
-        <v>45363</v>
+        <v>44938</v>
       </c>
       <c r="B9">
-        <v>83.77926635742188</v>
+        <v>108.3612060546875</v>
       </c>
       <c r="C9">
-        <v>84.32273864746094</v>
+        <v>108.5451507568359</v>
       </c>
       <c r="D9">
-        <v>81.22909545898438</v>
+        <v>106.8478240966797</v>
       </c>
       <c r="E9">
-        <v>82.54180908203125</v>
+        <v>108.1521759033203</v>
       </c>
       <c r="F9">
-        <v>82.54180908203125</v>
+        <v>98.83977508544922</v>
       </c>
       <c r="G9">
-        <v>16737302</v>
+        <v>2200042</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2">
-        <v>45364</v>
+        <v>44939</v>
       </c>
       <c r="B10">
-        <v>83.3779296875</v>
+        <v>107.3745803833008</v>
       </c>
       <c r="C10">
-        <v>87.03177642822266</v>
+        <v>108.3695678710938</v>
       </c>
       <c r="D10">
-        <v>82.94314575195312</v>
+        <v>107.1906356811523</v>
       </c>
       <c r="E10">
-        <v>87.01505279541016</v>
+        <v>108.2859497070312</v>
       </c>
       <c r="F10">
-        <v>87.01505279541016</v>
+        <v>98.9620361328125</v>
       </c>
       <c r="G10">
-        <v>12935338</v>
+        <v>2025306</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2">
-        <v>45365</v>
+        <v>44943</v>
       </c>
       <c r="B11">
-        <v>86.42140197753906</v>
+        <v>108.4949798583984</v>
       </c>
       <c r="C11">
-        <v>87.40802764892578</v>
+        <v>108.6120376586914</v>
       </c>
       <c r="D11">
-        <v>85.48494720458984</v>
+        <v>105.6772613525391</v>
       </c>
       <c r="E11">
-        <v>86.22073364257812</v>
+        <v>105.8528442382812</v>
       </c>
       <c r="F11">
-        <v>86.22073364257812</v>
+        <v>96.73843383789062</v>
       </c>
       <c r="G11">
-        <v>8282539</v>
+        <v>4199036</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2">
-        <v>45366</v>
+        <v>44944</v>
       </c>
       <c r="B12">
-        <v>86.12039947509766</v>
+        <v>106.0618743896484</v>
       </c>
       <c r="C12">
-        <v>88.24414825439453</v>
+        <v>106.3461532592773</v>
       </c>
       <c r="D12">
-        <v>85.93645477294922</v>
+        <v>102.2240829467773</v>
       </c>
       <c r="E12">
-        <v>87.79264068603516</v>
+        <v>102.6337814331055</v>
       </c>
       <c r="F12">
-        <v>87.79264068603516</v>
+        <v>93.79654693603516</v>
       </c>
       <c r="G12">
-        <v>32098966</v>
+        <v>5093166</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2">
-        <v>45369</v>
+        <v>44945</v>
       </c>
       <c r="B13">
-        <v>87.39966583251953</v>
+        <v>102.0066909790039</v>
       </c>
       <c r="C13">
-        <v>88.87123870849609</v>
+        <v>102.2491607666016</v>
       </c>
       <c r="D13">
-        <v>87.30769348144531</v>
+        <v>98.92976379394531</v>
       </c>
       <c r="E13">
-        <v>87.62541961669922</v>
+        <v>99.02173614501953</v>
       </c>
       <c r="F13">
-        <v>87.62541961669922</v>
+        <v>90.49550628662109</v>
       </c>
       <c r="G13">
-        <v>6622491</v>
+        <v>5955721</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2">
-        <v>45370</v>
+        <v>44946</v>
       </c>
       <c r="B14">
-        <v>88.45317840576172</v>
+        <v>99.1220703125</v>
       </c>
       <c r="C14">
-        <v>89.46488189697266</v>
+        <v>100.928092956543</v>
       </c>
       <c r="D14">
-        <v>87.41638946533203</v>
+        <v>97.62541961669922</v>
       </c>
       <c r="E14">
-        <v>88.06020355224609</v>
+        <v>100.8779296875</v>
       </c>
       <c r="F14">
-        <v>88.06020355224609</v>
+        <v>92.19187927246094</v>
       </c>
       <c r="G14">
-        <v>6987869</v>
+        <v>5230706</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2">
-        <v>45371</v>
+        <v>44949</v>
       </c>
       <c r="B15">
-        <v>87.78427886962891</v>
+        <v>100.844482421875</v>
       </c>
       <c r="C15">
-        <v>91.22073364257812</v>
+        <v>103.5953216552734</v>
       </c>
       <c r="D15">
-        <v>87.32441711425781</v>
+        <v>100.6772613525391</v>
       </c>
       <c r="E15">
-        <v>90.39297485351562</v>
+        <v>102.5250854492188</v>
       </c>
       <c r="F15">
-        <v>90.39297485351562</v>
+        <v>93.69720458984375</v>
       </c>
       <c r="G15">
-        <v>8390299</v>
+        <v>4080991</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2">
-        <v>45372</v>
+        <v>44950</v>
       </c>
       <c r="B16">
-        <v>90.46822357177734</v>
+        <v>97.02341461181641</v>
       </c>
       <c r="C16">
-        <v>91.29598999023438</v>
+        <v>100.3344497680664</v>
       </c>
       <c r="D16">
-        <v>90.12541961669922</v>
+        <v>95.73578643798828</v>
       </c>
       <c r="E16">
-        <v>90.19230651855469</v>
+        <v>96.15384674072266</v>
       </c>
       <c r="F16">
-        <v>90.19230651855469</v>
+        <v>87.87455749511719</v>
       </c>
       <c r="G16">
-        <v>7886663</v>
+        <v>12290694</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2">
-        <v>45373</v>
+        <v>44951</v>
       </c>
       <c r="B17">
-        <v>89.966552734375</v>
+        <v>95.73578643798828</v>
       </c>
       <c r="C17">
-        <v>90.40133666992188</v>
+        <v>97.19063568115234</v>
       </c>
       <c r="D17">
-        <v>89.25585174560547</v>
+        <v>94.27257537841797</v>
       </c>
       <c r="E17">
-        <v>89.28093719482422</v>
+        <v>94.42308044433594</v>
       </c>
       <c r="F17">
-        <v>89.28093719482422</v>
+        <v>86.29282379150391</v>
       </c>
       <c r="G17">
-        <v>5321243</v>
+        <v>7167867</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="2">
-        <v>45376</v>
+        <v>44952</v>
       </c>
       <c r="B18">
-        <v>88.54515075683594</v>
+        <v>94.90802764892578</v>
       </c>
       <c r="C18">
-        <v>89.30602264404297</v>
+        <v>95.40133666992188</v>
       </c>
       <c r="D18">
-        <v>87.60869598388672</v>
+        <v>93.44481658935547</v>
       </c>
       <c r="E18">
-        <v>87.65885925292969</v>
+        <v>94.94147491455078</v>
       </c>
       <c r="F18">
-        <v>87.65885925292969</v>
+        <v>86.76657867431641</v>
       </c>
       <c r="G18">
-        <v>6680019</v>
+        <v>5532218</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="2">
-        <v>45377</v>
+        <v>44953</v>
       </c>
       <c r="B19">
-        <v>87.00669097900391</v>
+        <v>95.09197235107422</v>
       </c>
       <c r="C19">
-        <v>87.5167236328125</v>
+        <v>96.80602264404297</v>
       </c>
       <c r="D19">
-        <v>85.61872863769531</v>
+        <v>94.86621856689453</v>
       </c>
       <c r="E19">
-        <v>85.81103515625</v>
+        <v>96.36287689208984</v>
       </c>
       <c r="F19">
-        <v>85.81103515625</v>
+        <v>88.06558990478516</v>
       </c>
       <c r="G19">
-        <v>7279693</v>
+        <v>4920942</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="2">
-        <v>45378</v>
+        <v>44956</v>
       </c>
       <c r="B20">
-        <v>86.12039947509766</v>
+        <v>95.71070098876953</v>
       </c>
       <c r="C20">
-        <v>87.59197235107422</v>
+        <v>96.98996734619141</v>
       </c>
       <c r="D20">
-        <v>86.11203765869141</v>
+        <v>94.11370849609375</v>
       </c>
       <c r="E20">
-        <v>87.44983673095703</v>
+        <v>94.13043212890625</v>
       </c>
       <c r="F20">
-        <v>87.44983673095703</v>
+        <v>86.02536773681641</v>
       </c>
       <c r="G20">
-        <v>4641676</v>
+        <v>7059868</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="2">
+        <v>44957</v>
+      </c>
+      <c r="B21">
+        <v>94.60702514648438</v>
+      </c>
+      <c r="C21">
+        <v>96.22073364257812</v>
+      </c>
+      <c r="D21">
+        <v>93.96321105957031</v>
+      </c>
+      <c r="E21">
+        <v>96.22073364257812</v>
+      </c>
+      <c r="F21">
+        <v>87.93568420410156</v>
+      </c>
+      <c r="G21">
+        <v>6065155</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="2">
+        <v>44958</v>
+      </c>
+      <c r="B22">
+        <v>95.77759552001953</v>
+      </c>
+      <c r="C22">
+        <v>97.60869598388672</v>
+      </c>
+      <c r="D22">
+        <v>95.02508544921875</v>
+      </c>
+      <c r="E22">
+        <v>96.87290954589844</v>
+      </c>
+      <c r="F22">
+        <v>88.53170776367188</v>
+      </c>
+      <c r="G22">
+        <v>3708557</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="2">
+        <v>44959</v>
+      </c>
+      <c r="B23">
+        <v>97.06521606445312</v>
+      </c>
+      <c r="C23">
+        <v>101.0451507568359</v>
+      </c>
+      <c r="D23">
+        <v>96.58026885986328</v>
+      </c>
+      <c r="E23">
+        <v>100.5769195556641</v>
+      </c>
+      <c r="F23">
+        <v>91.91678619384766</v>
+      </c>
+      <c r="G23">
+        <v>5880971</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="2">
+        <v>44960</v>
+      </c>
+      <c r="B24">
+        <v>99.43979644775391</v>
+      </c>
+      <c r="C24">
+        <v>99.69063568115234</v>
+      </c>
+      <c r="D24">
+        <v>97.65050506591797</v>
+      </c>
+      <c r="E24">
+        <v>98.23578643798828</v>
+      </c>
+      <c r="F24">
+        <v>89.77722930908203</v>
+      </c>
+      <c r="G24">
+        <v>3208150</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="2">
+        <v>44963</v>
+      </c>
+      <c r="B25">
+        <v>97.65050506591797</v>
+      </c>
+      <c r="C25">
+        <v>98.04347991943359</v>
+      </c>
+      <c r="D25">
+        <v>96.88963317871094</v>
+      </c>
+      <c r="E25">
+        <v>97.40802764892578</v>
+      </c>
+      <c r="F25">
+        <v>89.02075958251953</v>
+      </c>
+      <c r="G25">
+        <v>2974811</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="2">
+        <v>44964</v>
+      </c>
+      <c r="B26">
+        <v>96.83946228027344</v>
+      </c>
+      <c r="C26">
+        <v>98.00167083740234</v>
+      </c>
+      <c r="D26">
+        <v>95.96154022216797</v>
+      </c>
+      <c r="E26">
+        <v>97.74247741699219</v>
+      </c>
+      <c r="F26">
+        <v>89.32640838623047</v>
+      </c>
+      <c r="G26">
+        <v>2610509</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="2">
+        <v>44965</v>
+      </c>
+      <c r="B27">
+        <v>97.13211059570312</v>
+      </c>
+      <c r="C27">
+        <v>97.56688690185547</v>
+      </c>
+      <c r="D27">
+        <v>96.16220855712891</v>
+      </c>
+      <c r="E27">
+        <v>96.36287689208984</v>
+      </c>
+      <c r="F27">
+        <v>88.06558990478516</v>
+      </c>
+      <c r="G27">
+        <v>3003993</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="2">
+        <v>44966</v>
+      </c>
+      <c r="B28">
+        <v>97.34949493408203</v>
+      </c>
+      <c r="C28">
+        <v>97.65050506591797</v>
+      </c>
+      <c r="D28">
+        <v>94.03009796142578</v>
+      </c>
+      <c r="E28">
+        <v>94.42308044433594</v>
+      </c>
+      <c r="F28">
+        <v>86.29282379150391</v>
+      </c>
+      <c r="G28">
+        <v>4307872</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="2">
+        <v>44967</v>
+      </c>
+      <c r="B29">
+        <v>94.67391204833984</v>
+      </c>
+      <c r="C29">
+        <v>95.50167083740234</v>
+      </c>
+      <c r="D29">
+        <v>94.23076629638672</v>
+      </c>
+      <c r="E29">
+        <v>95.21739196777344</v>
+      </c>
+      <c r="F29">
+        <v>87.01873016357422</v>
+      </c>
+      <c r="G29">
+        <v>2720302</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="2">
+        <v>44970</v>
+      </c>
+      <c r="B30">
+        <v>95.62709045410156</v>
+      </c>
+      <c r="C30">
+        <v>96.6722412109375</v>
+      </c>
+      <c r="D30">
+        <v>95.15050506591797</v>
+      </c>
+      <c r="E30">
+        <v>96.38796234130859</v>
+      </c>
+      <c r="F30">
+        <v>88.08851623535156</v>
+      </c>
+      <c r="G30">
+        <v>2688130</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="2">
+        <v>44971</v>
+      </c>
+      <c r="B31">
+        <v>95.97826385498047</v>
+      </c>
+      <c r="C31">
+        <v>96.22073364257812</v>
+      </c>
+      <c r="D31">
+        <v>94.43979644775391</v>
+      </c>
+      <c r="E31">
+        <v>95.49330902099609</v>
+      </c>
+      <c r="F31">
+        <v>87.27090454101562</v>
+      </c>
+      <c r="G31">
+        <v>2944911</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="2">
+        <v>44972</v>
+      </c>
+      <c r="B32">
+        <v>95.02508544921875</v>
+      </c>
+      <c r="C32">
+        <v>96.00334167480469</v>
+      </c>
+      <c r="D32">
+        <v>94.64882659912109</v>
+      </c>
+      <c r="E32">
+        <v>95.97826385498047</v>
+      </c>
+      <c r="F32">
+        <v>87.71409606933594</v>
+      </c>
+      <c r="G32">
+        <v>3022651</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="2">
+        <v>44973</v>
+      </c>
+      <c r="B33">
+        <v>94.06354522705078</v>
+      </c>
+      <c r="C33">
+        <v>94.76588439941406</v>
+      </c>
+      <c r="D33">
+        <v>92.60869598388672</v>
+      </c>
+      <c r="E33">
+        <v>93.64548492431641</v>
+      </c>
+      <c r="F33">
+        <v>86.94094085693359</v>
+      </c>
+      <c r="G33">
+        <v>3223340</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="2">
+        <v>44974</v>
+      </c>
+      <c r="B34">
+        <v>93.61203765869141</v>
+      </c>
+      <c r="C34">
+        <v>94.51505279541016</v>
+      </c>
+      <c r="D34">
+        <v>92.54180908203125</v>
+      </c>
+      <c r="E34">
+        <v>94.47324371337891</v>
+      </c>
+      <c r="F34">
+        <v>87.70943450927734</v>
+      </c>
+      <c r="G34">
+        <v>3381929</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="2">
+        <v>44978</v>
+      </c>
+      <c r="B35">
+        <v>93.64548492431641</v>
+      </c>
+      <c r="C35">
+        <v>93.97993469238281</v>
+      </c>
+      <c r="D35">
+        <v>91.28762817382812</v>
+      </c>
+      <c r="E35">
+        <v>91.34615325927734</v>
+      </c>
+      <c r="F35">
+        <v>84.80622100830078</v>
+      </c>
+      <c r="G35">
+        <v>4651364</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="2">
+        <v>44979</v>
+      </c>
+      <c r="B36">
+        <v>91.58026885986328</v>
+      </c>
+      <c r="C36">
+        <v>92.29096984863281</v>
+      </c>
+      <c r="D36">
+        <v>90.72742462158203</v>
+      </c>
+      <c r="E36">
+        <v>91.08695983886719</v>
+      </c>
+      <c r="F36">
+        <v>84.56558990478516</v>
+      </c>
+      <c r="G36">
+        <v>3175380</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="2">
+        <v>44980</v>
+      </c>
+      <c r="B37">
+        <v>91.72240447998047</v>
+      </c>
+      <c r="C37">
+        <v>92.21572113037109</v>
+      </c>
+      <c r="D37">
+        <v>90.30936431884766</v>
+      </c>
+      <c r="E37">
+        <v>91.06187438964844</v>
+      </c>
+      <c r="F37">
+        <v>84.54228973388672</v>
+      </c>
+      <c r="G37">
+        <v>3520785</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="2">
+        <v>44981</v>
+      </c>
+      <c r="B38">
+        <v>90.39297485351562</v>
+      </c>
+      <c r="C38">
+        <v>90.75251007080078</v>
+      </c>
+      <c r="D38">
+        <v>89.26421356201172</v>
+      </c>
+      <c r="E38">
+        <v>90.13378143310547</v>
+      </c>
+      <c r="F38">
+        <v>83.68065643310547</v>
+      </c>
+      <c r="G38">
+        <v>3424028</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="2">
+        <v>44984</v>
+      </c>
+      <c r="B39">
+        <v>91.02006530761719</v>
+      </c>
+      <c r="C39">
+        <v>92.55016326904297</v>
+      </c>
+      <c r="D39">
+        <v>90.46822357177734</v>
+      </c>
+      <c r="E39">
+        <v>90.52675628662109</v>
+      </c>
+      <c r="F39">
+        <v>84.04548645019531</v>
+      </c>
+      <c r="G39">
+        <v>4252976</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="2">
+        <v>44985</v>
+      </c>
+      <c r="B40">
+        <v>90.40133666992188</v>
+      </c>
+      <c r="C40">
+        <v>91.07023620605469</v>
+      </c>
+      <c r="D40">
+        <v>89.67391204833984</v>
+      </c>
+      <c r="E40">
+        <v>90.08361053466797</v>
+      </c>
+      <c r="F40">
+        <v>83.63407135009766</v>
+      </c>
+      <c r="G40">
+        <v>4043078</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="2">
+        <v>44986</v>
+      </c>
+      <c r="B41">
+        <v>92.84281158447266</v>
+      </c>
+      <c r="C41">
+        <v>93.92140197753906</v>
+      </c>
+      <c r="D41">
+        <v>91.75585174560547</v>
+      </c>
+      <c r="E41">
+        <v>92.14882659912109</v>
+      </c>
+      <c r="F41">
+        <v>85.55142974853516</v>
+      </c>
+      <c r="G41">
+        <v>5877981</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="2">
+        <v>44987</v>
+      </c>
+      <c r="B42">
+        <v>91.76421356201172</v>
+      </c>
+      <c r="C42">
+        <v>92.17391204833984</v>
+      </c>
+      <c r="D42">
+        <v>90.06688690185547</v>
+      </c>
+      <c r="E42">
+        <v>91.88963317871094</v>
+      </c>
+      <c r="F42">
+        <v>85.31079864501953</v>
+      </c>
+      <c r="G42">
+        <v>9076803</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="2">
+        <v>44988</v>
+      </c>
+      <c r="B43">
+        <v>92.62541961669922</v>
+      </c>
+      <c r="C43">
+        <v>93.63712310791016</v>
+      </c>
+      <c r="D43">
+        <v>91.64715576171875</v>
+      </c>
+      <c r="E43">
+        <v>93.02675628662109</v>
+      </c>
+      <c r="F43">
+        <v>86.36650085449219</v>
+      </c>
+      <c r="G43">
+        <v>3636797</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="2">
+        <v>44991</v>
+      </c>
+      <c r="B44">
+        <v>93.14381408691406</v>
+      </c>
+      <c r="C44">
+        <v>93.3277587890625</v>
+      </c>
+      <c r="D44">
+        <v>91.7056884765625</v>
+      </c>
+      <c r="E44">
+        <v>91.91471862792969</v>
+      </c>
+      <c r="F44">
+        <v>85.33408355712891</v>
+      </c>
+      <c r="G44">
+        <v>3373677</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="2">
+        <v>44992</v>
+      </c>
+      <c r="B45">
+        <v>91.97324371337891</v>
+      </c>
+      <c r="C45">
+        <v>91.98160552978516</v>
+      </c>
+      <c r="D45">
+        <v>89.49832916259766</v>
+      </c>
+      <c r="E45">
+        <v>89.54013061523438</v>
+      </c>
+      <c r="F45">
+        <v>83.12950134277344</v>
+      </c>
+      <c r="G45">
+        <v>4033869</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="2">
+        <v>44993</v>
+      </c>
+      <c r="B46">
+        <v>89.83277893066406</v>
+      </c>
+      <c r="C46">
+        <v>90.10869598388672</v>
+      </c>
+      <c r="D46">
+        <v>88.77926635742188</v>
+      </c>
+      <c r="E46">
+        <v>89.59866333007812</v>
+      </c>
+      <c r="F46">
+        <v>83.18385314941406</v>
+      </c>
+      <c r="G46">
+        <v>4107901</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="2">
+        <v>44994</v>
+      </c>
+      <c r="B47">
+        <v>90.0167236328125</v>
+      </c>
+      <c r="C47">
+        <v>90.76923370361328</v>
+      </c>
+      <c r="D47">
+        <v>88.14381408691406</v>
+      </c>
+      <c r="E47">
+        <v>88.22742462158203</v>
+      </c>
+      <c r="F47">
+        <v>81.91078186035156</v>
+      </c>
+      <c r="G47">
+        <v>4142585</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="2">
+        <v>44995</v>
+      </c>
+      <c r="B48">
+        <v>88.24414825439453</v>
+      </c>
+      <c r="C48">
+        <v>89.46488189697266</v>
+      </c>
+      <c r="D48">
+        <v>86.73912811279297</v>
+      </c>
+      <c r="E48">
+        <v>87.00669097900391</v>
+      </c>
+      <c r="F48">
+        <v>80.77744293212891</v>
+      </c>
+      <c r="G48">
+        <v>4417904</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="2">
+        <v>44998</v>
+      </c>
+      <c r="B49">
+        <v>86.68060302734375</v>
+      </c>
+      <c r="C49">
+        <v>87.52508544921875</v>
+      </c>
+      <c r="D49">
+        <v>85.89464569091797</v>
+      </c>
+      <c r="E49">
+        <v>86.53845977783203</v>
+      </c>
+      <c r="F49">
+        <v>80.34274291992188</v>
+      </c>
+      <c r="G49">
+        <v>5036476</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="2">
+        <v>44999</v>
+      </c>
+      <c r="B50">
+        <v>87.44983673095703</v>
+      </c>
+      <c r="C50">
+        <v>87.93478393554688</v>
+      </c>
+      <c r="D50">
+        <v>84.75752258300781</v>
+      </c>
+      <c r="E50">
+        <v>85.93645477294922</v>
+      </c>
+      <c r="F50">
+        <v>79.78383636474609</v>
+      </c>
+      <c r="G50">
+        <v>5707312</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="2">
+        <v>45000</v>
+      </c>
+      <c r="B51">
+        <v>84.71572113037109</v>
+      </c>
+      <c r="C51">
+        <v>85.96990203857422</v>
+      </c>
+      <c r="D51">
+        <v>83.83779144287109</v>
+      </c>
+      <c r="E51">
+        <v>85.93645477294922</v>
+      </c>
+      <c r="F51">
+        <v>79.78383636474609</v>
+      </c>
+      <c r="G51">
+        <v>5850473</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="2">
+        <v>45001</v>
+      </c>
+      <c r="B52">
+        <v>85.10033416748047</v>
+      </c>
+      <c r="C52">
+        <v>87.31605529785156</v>
+      </c>
+      <c r="D52">
+        <v>84.84949493408203</v>
+      </c>
+      <c r="E52">
+        <v>87.13211059570312</v>
+      </c>
+      <c r="F52">
+        <v>80.89388275146484</v>
+      </c>
+      <c r="G52">
+        <v>4356550</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="2">
+        <v>45002</v>
+      </c>
+      <c r="B53">
+        <v>87.24916076660156</v>
+      </c>
+      <c r="C53">
+        <v>87.34114074707031</v>
+      </c>
+      <c r="D53">
+        <v>85.25919342041016</v>
+      </c>
+      <c r="E53">
+        <v>86.13712310791016</v>
+      </c>
+      <c r="F53">
+        <v>79.97013854980469</v>
+      </c>
+      <c r="G53">
+        <v>13617297</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="2">
+        <v>45005</v>
+      </c>
+      <c r="B54">
+        <v>86.46321105957031</v>
+      </c>
+      <c r="C54">
+        <v>87.33277893066406</v>
+      </c>
+      <c r="D54">
+        <v>86.30435180664062</v>
+      </c>
+      <c r="E54">
+        <v>87.21572113037109</v>
+      </c>
+      <c r="F54">
+        <v>80.97150421142578</v>
+      </c>
+      <c r="G54">
+        <v>3255392</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="2">
+        <v>45006</v>
+      </c>
+      <c r="B55">
+        <v>87.99330902099609</v>
+      </c>
+      <c r="C55">
+        <v>88.19397735595703</v>
+      </c>
+      <c r="D55">
+        <v>86.42976379394531</v>
+      </c>
+      <c r="E55">
+        <v>87.19899749755859</v>
+      </c>
+      <c r="F55">
+        <v>80.95598602294922</v>
+      </c>
+      <c r="G55">
+        <v>3137826</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="2">
+        <v>45007</v>
+      </c>
+      <c r="B56">
+        <v>87.22408294677734</v>
+      </c>
+      <c r="C56">
+        <v>87.41638946533203</v>
+      </c>
+      <c r="D56">
+        <v>84.86621856689453</v>
+      </c>
+      <c r="E56">
+        <v>84.89966583251953</v>
+      </c>
+      <c r="F56">
+        <v>78.82126617431641</v>
+      </c>
+      <c r="G56">
+        <v>3355378</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="2">
+        <v>45008</v>
+      </c>
+      <c r="B57">
+        <v>85</v>
+      </c>
+      <c r="C57">
+        <v>86.06187438964844</v>
+      </c>
+      <c r="D57">
+        <v>84.24748992919922</v>
+      </c>
+      <c r="E57">
+        <v>84.44815826416016</v>
+      </c>
+      <c r="F57">
+        <v>78.40209197998047</v>
+      </c>
+      <c r="G57">
+        <v>3800051</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="2">
+        <v>45009</v>
+      </c>
+      <c r="B58">
+        <v>83.92140197753906</v>
+      </c>
+      <c r="C58">
+        <v>84.73244476318359</v>
+      </c>
+      <c r="D58">
+        <v>83.74581909179688</v>
+      </c>
+      <c r="E58">
+        <v>84.56521606445312</v>
+      </c>
+      <c r="F58">
+        <v>78.51077270507812</v>
+      </c>
+      <c r="G58">
+        <v>4249268</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="2">
+        <v>45012</v>
+      </c>
+      <c r="B59">
+        <v>85.46822357177734</v>
+      </c>
+      <c r="C59">
+        <v>85.51839447021484</v>
+      </c>
+      <c r="D59">
+        <v>84.11370849609375</v>
+      </c>
+      <c r="E59">
+        <v>84.85785675048828</v>
+      </c>
+      <c r="F59">
+        <v>78.78245544433594</v>
+      </c>
+      <c r="G59">
+        <v>3345690</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="2">
+        <v>45013</v>
+      </c>
+      <c r="B60">
+        <v>84.94147491455078</v>
+      </c>
+      <c r="C60">
+        <v>85.97826385498047</v>
+      </c>
+      <c r="D60">
+        <v>84.70735931396484</v>
+      </c>
+      <c r="E60">
+        <v>85.06688690185547</v>
+      </c>
+      <c r="F60">
+        <v>78.97652435302734</v>
+      </c>
+      <c r="G60">
+        <v>2945509</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="2">
+        <v>45014</v>
+      </c>
+      <c r="B61">
+        <v>85.96154022216797</v>
+      </c>
+      <c r="C61">
+        <v>86.32106781005859</v>
+      </c>
+      <c r="D61">
+        <v>85.20066833496094</v>
+      </c>
+      <c r="E61">
+        <v>86.27926635742188</v>
+      </c>
+      <c r="F61">
+        <v>80.10211181640625</v>
+      </c>
+      <c r="G61">
+        <v>3853034</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="2">
+        <v>45015</v>
+      </c>
+      <c r="B62">
+        <v>86.74748992919922</v>
+      </c>
+      <c r="C62">
+        <v>86.88963317871094</v>
+      </c>
+      <c r="D62">
+        <v>85.72742462158203</v>
+      </c>
+      <c r="E62">
+        <v>85.93645477294922</v>
+      </c>
+      <c r="F62">
+        <v>79.78383636474609</v>
+      </c>
+      <c r="G62">
+        <v>2810241</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="2">
+        <v>45016</v>
+      </c>
+      <c r="B63">
+        <v>86.53845977783203</v>
+      </c>
+      <c r="C63">
+        <v>87.95150756835938</v>
+      </c>
+      <c r="D63">
+        <v>86.12876129150391</v>
+      </c>
+      <c r="E63">
+        <v>87.88461303710938</v>
+      </c>
+      <c r="F63">
+        <v>81.59251403808594</v>
+      </c>
+      <c r="G63">
+        <v>4319354</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="2">
+        <v>45019</v>
+      </c>
+      <c r="B64">
+        <v>87.91806030273438</v>
+      </c>
+      <c r="C64">
+        <v>88.49497985839844</v>
+      </c>
+      <c r="D64">
+        <v>87.10702514648438</v>
+      </c>
+      <c r="E64">
+        <v>87.43311309814453</v>
+      </c>
+      <c r="F64">
+        <v>81.17333984375</v>
+      </c>
+      <c r="G64">
+        <v>4804691</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="2">
+        <v>45020</v>
+      </c>
+      <c r="B65">
+        <v>87.70903015136719</v>
+      </c>
+      <c r="C65">
+        <v>87.70903015136719</v>
+      </c>
+      <c r="D65">
+        <v>85.34281158447266</v>
+      </c>
+      <c r="E65">
+        <v>85.49330902099609</v>
+      </c>
+      <c r="F65">
+        <v>79.37242126464844</v>
+      </c>
+      <c r="G65">
+        <v>4154067</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="2">
+        <v>45021</v>
+      </c>
+      <c r="B66">
+        <v>85.58528137207031</v>
+      </c>
+      <c r="C66">
+        <v>85.92809295654297</v>
+      </c>
+      <c r="D66">
+        <v>85.0167236328125</v>
+      </c>
+      <c r="E66">
+        <v>85.52675628662109</v>
+      </c>
+      <c r="F66">
+        <v>79.40347290039062</v>
+      </c>
+      <c r="G66">
+        <v>3171792</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="2">
+        <v>45022</v>
+      </c>
+      <c r="B67">
+        <v>85.57691955566406</v>
+      </c>
+      <c r="C67">
+        <v>85.95317840576172</v>
+      </c>
+      <c r="D67">
+        <v>84.88294219970703</v>
+      </c>
+      <c r="E67">
+        <v>84.91638946533203</v>
+      </c>
+      <c r="F67">
+        <v>78.83679962158203</v>
+      </c>
+      <c r="G67">
+        <v>2893363</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="2">
+        <v>45026</v>
+      </c>
+      <c r="B68">
+        <v>84.94983673095703</v>
+      </c>
+      <c r="C68">
+        <v>86.22909545898438</v>
+      </c>
+      <c r="D68">
+        <v>84.48996734619141</v>
+      </c>
+      <c r="E68">
+        <v>85.91973114013672</v>
+      </c>
+      <c r="F68">
+        <v>79.768310546875</v>
+      </c>
+      <c r="G68">
+        <v>3444719</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="2">
+        <v>45027</v>
+      </c>
+      <c r="B69">
+        <v>86.64715576171875</v>
+      </c>
+      <c r="C69">
+        <v>87.60869598388672</v>
+      </c>
+      <c r="D69">
+        <v>86.37960052490234</v>
+      </c>
+      <c r="E69">
+        <v>87.42475128173828</v>
+      </c>
+      <c r="F69">
+        <v>81.16557312011719</v>
+      </c>
+      <c r="G69">
+        <v>3530592</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="2">
+        <v>45028</v>
+      </c>
+      <c r="B70">
+        <v>87.79264068603516</v>
+      </c>
+      <c r="C70">
+        <v>87.91806030273438</v>
+      </c>
+      <c r="D70">
+        <v>86.69732666015625</v>
+      </c>
+      <c r="E70">
+        <v>87.26588439941406</v>
+      </c>
+      <c r="F70">
+        <v>81.01808166503906</v>
+      </c>
+      <c r="G70">
+        <v>3258861</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="2">
+        <v>45029</v>
+      </c>
+      <c r="B71">
+        <v>87.65885925292969</v>
+      </c>
+      <c r="C71">
+        <v>88.99665832519531</v>
+      </c>
+      <c r="D71">
+        <v>87.03177642822266</v>
+      </c>
+      <c r="E71">
+        <v>88.75418090820312</v>
+      </c>
+      <c r="F71">
+        <v>82.39982604980469</v>
+      </c>
+      <c r="G71">
+        <v>4108499</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="2">
+        <v>45030</v>
+      </c>
+      <c r="B72">
+        <v>88.62876129150391</v>
+      </c>
+      <c r="C72">
+        <v>89.56521606445312</v>
+      </c>
+      <c r="D72">
+        <v>87.80100250244141</v>
+      </c>
+      <c r="E72">
+        <v>88.43645477294922</v>
+      </c>
+      <c r="F72">
+        <v>82.10485076904297</v>
+      </c>
+      <c r="G72">
+        <v>3341146</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="2">
+        <v>45033</v>
+      </c>
+      <c r="B73">
+        <v>88.76254272460938</v>
+      </c>
+      <c r="C73">
+        <v>89.54849243164062</v>
+      </c>
+      <c r="D73">
+        <v>88.57859802246094</v>
+      </c>
+      <c r="E73">
+        <v>89.28093719482422</v>
+      </c>
+      <c r="F73">
+        <v>82.88887023925781</v>
+      </c>
+      <c r="G73">
+        <v>2911184</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="2">
+        <v>45034</v>
+      </c>
+      <c r="B74">
+        <v>89.65718841552734</v>
+      </c>
+      <c r="C74">
+        <v>89.71572113037109</v>
+      </c>
+      <c r="D74">
+        <v>88.52006530761719</v>
+      </c>
+      <c r="E74">
+        <v>88.85451507568359</v>
+      </c>
+      <c r="F74">
+        <v>82.49298095703125</v>
+      </c>
+      <c r="G74">
+        <v>2286872</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="2">
+        <v>45035</v>
+      </c>
+      <c r="B75">
+        <v>88.3779296875</v>
+      </c>
+      <c r="C75">
+        <v>88.91304016113281</v>
+      </c>
+      <c r="D75">
+        <v>88.17726135253906</v>
+      </c>
+      <c r="E75">
+        <v>88.69564819335938</v>
+      </c>
+      <c r="F75">
+        <v>82.34548187255859</v>
+      </c>
+      <c r="G75">
+        <v>2293928</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="2">
+        <v>45036</v>
+      </c>
+      <c r="B76">
+        <v>88.17726135253906</v>
+      </c>
+      <c r="C76">
+        <v>88.28594970703125</v>
+      </c>
+      <c r="D76">
+        <v>87.04849243164062</v>
+      </c>
+      <c r="E76">
+        <v>87.56688690185547</v>
+      </c>
+      <c r="F76">
+        <v>81.29754638671875</v>
+      </c>
+      <c r="G76">
+        <v>4419579</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="2">
+        <v>45037</v>
+      </c>
+      <c r="B77">
+        <v>87.77591705322266</v>
+      </c>
+      <c r="C77">
+        <v>87.89297485351562</v>
+      </c>
+      <c r="D77">
+        <v>87.00669097900391</v>
+      </c>
+      <c r="E77">
+        <v>87.35785675048828</v>
+      </c>
+      <c r="F77">
+        <v>81.10346984863281</v>
+      </c>
+      <c r="G77">
+        <v>7644593</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="2">
+        <v>45040</v>
+      </c>
+      <c r="B78">
+        <v>87.83444976806641</v>
+      </c>
+      <c r="C78">
+        <v>88.05184173583984</v>
+      </c>
+      <c r="D78">
+        <v>87.25752258300781</v>
+      </c>
+      <c r="E78">
+        <v>87.84281158447266</v>
+      </c>
+      <c r="F78">
+        <v>81.5537109375</v>
+      </c>
+      <c r="G78">
+        <v>4229056</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="2">
+        <v>45041</v>
+      </c>
+      <c r="B79">
+        <v>88.3612060546875</v>
+      </c>
+      <c r="C79">
+        <v>89.71572113037109</v>
+      </c>
+      <c r="D79">
+        <v>87.09030151367188</v>
+      </c>
+      <c r="E79">
+        <v>87.26588439941406</v>
+      </c>
+      <c r="F79">
+        <v>81.01808166503906</v>
+      </c>
+      <c r="G79">
+        <v>6065394</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="2">
+        <v>45042</v>
+      </c>
+      <c r="B80">
+        <v>86.95652008056641</v>
+      </c>
+      <c r="C80">
+        <v>87.95986938476562</v>
+      </c>
+      <c r="D80">
+        <v>85.92809295654297</v>
+      </c>
+      <c r="E80">
+        <v>86.05351257324219</v>
+      </c>
+      <c r="F80">
+        <v>79.89251708984375</v>
+      </c>
+      <c r="G80">
+        <v>3795386</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" s="2">
+        <v>45043</v>
+      </c>
+      <c r="B81">
+        <v>86.18729400634766</v>
+      </c>
+      <c r="C81">
+        <v>88.11872863769531</v>
+      </c>
+      <c r="D81">
+        <v>86.18729400634766</v>
+      </c>
+      <c r="E81">
+        <v>88.06856536865234</v>
+      </c>
+      <c r="F81">
+        <v>81.76329803466797</v>
+      </c>
+      <c r="G81">
+        <v>2862148</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="2">
+        <v>45044</v>
+      </c>
+      <c r="B82">
+        <v>88.05184173583984</v>
+      </c>
+      <c r="C82">
+        <v>88.97157287597656</v>
+      </c>
+      <c r="D82">
+        <v>87.91806030273438</v>
+      </c>
+      <c r="E82">
+        <v>88.81270599365234</v>
+      </c>
+      <c r="F82">
+        <v>82.45415496826172</v>
+      </c>
+      <c r="G82">
+        <v>4764505</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" s="2">
+        <v>45047</v>
+      </c>
+      <c r="B83">
+        <v>88.91304016113281</v>
+      </c>
+      <c r="C83">
+        <v>89.32273864746094</v>
+      </c>
+      <c r="D83">
+        <v>88.26087188720703</v>
+      </c>
+      <c r="E83">
+        <v>88.50334167480469</v>
+      </c>
+      <c r="F83">
+        <v>82.16694641113281</v>
+      </c>
+      <c r="G83">
+        <v>2738003</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" s="2">
+        <v>45048</v>
+      </c>
+      <c r="B84">
+        <v>88.21906280517578</v>
+      </c>
+      <c r="C84">
+        <v>88.3779296875</v>
+      </c>
+      <c r="D84">
+        <v>85.83612060546875</v>
+      </c>
+      <c r="E84">
+        <v>86.10367584228516</v>
+      </c>
+      <c r="F84">
+        <v>79.93907928466797</v>
+      </c>
+      <c r="G84">
+        <v>3602352</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" s="2">
+        <v>45049</v>
+      </c>
+      <c r="B85">
+        <v>86.53845977783203</v>
+      </c>
+      <c r="C85">
+        <v>87.45819091796875</v>
+      </c>
+      <c r="D85">
+        <v>85.844482421875</v>
+      </c>
+      <c r="E85">
+        <v>85.97826385498047</v>
+      </c>
+      <c r="F85">
+        <v>79.82265472412109</v>
+      </c>
+      <c r="G85">
+        <v>2459096</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="2">
+        <v>45050</v>
+      </c>
+      <c r="B86">
+        <v>85.74414825439453</v>
+      </c>
+      <c r="C86">
+        <v>86.10367584228516</v>
+      </c>
+      <c r="D86">
+        <v>84.24748992919922</v>
+      </c>
+      <c r="E86">
+        <v>85.15050506591797</v>
+      </c>
+      <c r="F86">
+        <v>79.05415344238281</v>
+      </c>
+      <c r="G86">
+        <v>3543987</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" s="2">
+        <v>45051</v>
+      </c>
+      <c r="B87">
+        <v>85.95317840576172</v>
+      </c>
+      <c r="C87">
+        <v>86.52173614501953</v>
+      </c>
+      <c r="D87">
+        <v>85.32608795166016</v>
+      </c>
+      <c r="E87">
+        <v>86.41304016113281</v>
+      </c>
+      <c r="F87">
+        <v>80.22629547119141</v>
+      </c>
+      <c r="G87">
+        <v>2324785</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" s="2">
+        <v>45054</v>
+      </c>
+      <c r="B88">
+        <v>86.58863067626953</v>
+      </c>
+      <c r="C88">
+        <v>86.89799499511719</v>
+      </c>
+      <c r="D88">
+        <v>84.99163818359375</v>
+      </c>
+      <c r="E88">
+        <v>85.56856536865234</v>
+      </c>
+      <c r="F88">
+        <v>79.44228363037109</v>
+      </c>
+      <c r="G88">
+        <v>2504424</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" s="2">
+        <v>45055</v>
+      </c>
+      <c r="B89">
+        <v>84.84114074707031</v>
+      </c>
+      <c r="C89">
+        <v>85.07524871826172</v>
+      </c>
+      <c r="D89">
+        <v>83.94648742675781</v>
+      </c>
+      <c r="E89">
+        <v>84.28093719482422</v>
+      </c>
+      <c r="F89">
+        <v>78.24684906005859</v>
+      </c>
+      <c r="G89">
+        <v>3733194</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" s="2">
+        <v>45056</v>
+      </c>
+      <c r="B90">
+        <v>84.77424621582031</v>
+      </c>
+      <c r="C90">
+        <v>85.033447265625</v>
+      </c>
+      <c r="D90">
+        <v>83.27759552001953</v>
+      </c>
+      <c r="E90">
+        <v>84.36454772949219</v>
+      </c>
+      <c r="F90">
+        <v>78.324462890625</v>
+      </c>
+      <c r="G90">
+        <v>3281944</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" s="2">
+        <v>45057</v>
+      </c>
+      <c r="B91">
+        <v>84.03009796142578</v>
+      </c>
+      <c r="C91">
+        <v>84.44815826416016</v>
+      </c>
+      <c r="D91">
+        <v>83.44481658935547</v>
+      </c>
+      <c r="E91">
+        <v>84.26421356201172</v>
+      </c>
+      <c r="F91">
+        <v>78.2313232421875</v>
+      </c>
+      <c r="G91">
+        <v>3317704</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" s="2">
+        <v>45058</v>
+      </c>
+      <c r="B92">
+        <v>84.62374877929688</v>
+      </c>
+      <c r="C92">
+        <v>84.67391204833984</v>
+      </c>
+      <c r="D92">
+        <v>83.00167083740234</v>
+      </c>
+      <c r="E92">
+        <v>83.83779144287109</v>
+      </c>
+      <c r="F92">
+        <v>77.83542633056641</v>
+      </c>
+      <c r="G92">
+        <v>2937496</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" s="2">
+        <v>45061</v>
+      </c>
+      <c r="B93">
+        <v>83.67057037353516</v>
+      </c>
+      <c r="C93">
+        <v>84.30602264404297</v>
+      </c>
+      <c r="D93">
+        <v>83.00167083740234</v>
+      </c>
+      <c r="E93">
+        <v>84.02173614501953</v>
+      </c>
+      <c r="F93">
+        <v>78.00620269775391</v>
+      </c>
+      <c r="G93">
+        <v>2878772</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" s="2">
+        <v>45062</v>
+      </c>
+      <c r="B94">
+        <v>83.61203765869141</v>
+      </c>
+      <c r="C94">
+        <v>83.64548492431641</v>
+      </c>
+      <c r="D94">
+        <v>81.93979644775391</v>
+      </c>
+      <c r="E94">
+        <v>81.94815826416016</v>
+      </c>
+      <c r="F94">
+        <v>76.08108520507812</v>
+      </c>
+      <c r="G94">
+        <v>4476748</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" s="2">
+        <v>45063</v>
+      </c>
+      <c r="B95">
+        <v>82.29096984863281</v>
+      </c>
+      <c r="C95">
+        <v>83.87123870849609</v>
+      </c>
+      <c r="D95">
+        <v>81.93979644775391</v>
+      </c>
+      <c r="E95">
+        <v>83.76254272460938</v>
+      </c>
+      <c r="F95">
+        <v>77.76556396484375</v>
+      </c>
+      <c r="G95">
+        <v>4279288</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" s="2">
+        <v>45064</v>
+      </c>
+      <c r="B96">
+        <v>82.30769348144531</v>
+      </c>
+      <c r="C96">
+        <v>83.47826385498047</v>
+      </c>
+      <c r="D96">
+        <v>81.98996734619141</v>
+      </c>
+      <c r="E96">
+        <v>83.31103515625</v>
+      </c>
+      <c r="F96">
+        <v>78.75673675537109</v>
+      </c>
+      <c r="G96">
+        <v>3485503</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" s="2">
+        <v>45065</v>
+      </c>
+      <c r="B97">
+        <v>83.82106781005859</v>
+      </c>
+      <c r="C97">
+        <v>84.00502014160156</v>
+      </c>
+      <c r="D97">
+        <v>82.5</v>
+      </c>
+      <c r="E97">
+        <v>82.80100250244141</v>
+      </c>
+      <c r="F97">
+        <v>78.27458953857422</v>
+      </c>
+      <c r="G97">
+        <v>3229080</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" s="2">
+        <v>45068</v>
+      </c>
+      <c r="B98">
+        <v>82.67558288574219</v>
+      </c>
+      <c r="C98">
+        <v>85.31772613525391</v>
+      </c>
+      <c r="D98">
+        <v>82.20735931396484</v>
+      </c>
+      <c r="E98">
+        <v>85.04180908203125</v>
+      </c>
+      <c r="F98">
+        <v>80.39289855957031</v>
+      </c>
+      <c r="G98">
+        <v>5008011</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" s="2">
+        <v>45069</v>
+      </c>
+      <c r="B99">
+        <v>85.04180908203125</v>
+      </c>
+      <c r="C99">
+        <v>85.98662567138672</v>
+      </c>
+      <c r="D99">
+        <v>84.16387939453125</v>
+      </c>
+      <c r="E99">
+        <v>84.19732666015625</v>
+      </c>
+      <c r="F99">
+        <v>79.59458160400391</v>
+      </c>
+      <c r="G99">
+        <v>4324975</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" s="2">
+        <v>45070</v>
+      </c>
+      <c r="B100">
+        <v>83.98829650878906</v>
+      </c>
+      <c r="C100">
+        <v>84.19732666015625</v>
+      </c>
+      <c r="D100">
+        <v>81.07859802246094</v>
+      </c>
+      <c r="E100">
+        <v>81.09532165527344</v>
+      </c>
+      <c r="F100">
+        <v>76.66215515136719</v>
+      </c>
+      <c r="G100">
+        <v>4942590</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" s="2">
+        <v>45071</v>
+      </c>
+      <c r="B101">
+        <v>80.72742462158203</v>
+      </c>
+      <c r="C101">
+        <v>81.27926635742188</v>
+      </c>
+      <c r="D101">
+        <v>79.72408294677734</v>
+      </c>
+      <c r="E101">
+        <v>81.14548492431641</v>
+      </c>
+      <c r="F101">
+        <v>76.70957183837891</v>
+      </c>
+      <c r="G101">
+        <v>3731042</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" s="2">
+        <v>45072</v>
+      </c>
+      <c r="B102">
+        <v>81.14548492431641</v>
+      </c>
+      <c r="C102">
+        <v>81.47157287597656</v>
+      </c>
+      <c r="D102">
+        <v>80.57691955566406</v>
+      </c>
+      <c r="E102">
+        <v>81.05351257324219</v>
+      </c>
+      <c r="F102">
+        <v>76.62261962890625</v>
+      </c>
+      <c r="G102">
+        <v>3333730</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" s="2">
+        <v>45076</v>
+      </c>
+      <c r="B103">
+        <v>81.04515075683594</v>
+      </c>
+      <c r="C103">
+        <v>81.27090454101562</v>
+      </c>
+      <c r="D103">
+        <v>79.59866333007812</v>
+      </c>
+      <c r="E103">
+        <v>80.31772613525391</v>
+      </c>
+      <c r="F103">
+        <v>75.92706298828125</v>
+      </c>
+      <c r="G103">
+        <v>3433477</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="2">
+        <v>45077</v>
+      </c>
+      <c r="B104">
+        <v>79.43143463134766</v>
+      </c>
+      <c r="C104">
+        <v>80.07524871826172</v>
+      </c>
+      <c r="D104">
+        <v>77.91806030273438</v>
+      </c>
+      <c r="E104">
+        <v>78.01839447021484</v>
+      </c>
+      <c r="F104">
+        <v>73.75342559814453</v>
+      </c>
+      <c r="G104">
+        <v>7405273</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" s="2">
+        <v>45078</v>
+      </c>
+      <c r="B105">
+        <v>78.15217590332031</v>
+      </c>
+      <c r="C105">
+        <v>79.08026885986328</v>
+      </c>
+      <c r="D105">
+        <v>77.24080657958984</v>
+      </c>
+      <c r="E105">
+        <v>78.82942962646484</v>
+      </c>
+      <c r="F105">
+        <v>74.52012634277344</v>
+      </c>
+      <c r="G105">
+        <v>3982082</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" s="2">
+        <v>45079</v>
+      </c>
+      <c r="B106">
+        <v>80.35117340087891</v>
+      </c>
+      <c r="C106">
+        <v>87.41638946533203</v>
+      </c>
+      <c r="D106">
+        <v>80.30100250244141</v>
+      </c>
+      <c r="E106">
+        <v>85.72742462158203</v>
+      </c>
+      <c r="F106">
+        <v>81.04103088378906</v>
+      </c>
+      <c r="G106">
+        <v>16938828</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" s="2">
+        <v>45082</v>
+      </c>
+      <c r="B107">
+        <v>84.36454772949219</v>
+      </c>
+      <c r="C107">
+        <v>85.69397735595703</v>
+      </c>
+      <c r="D107">
+        <v>81.86454772949219</v>
+      </c>
+      <c r="E107">
+        <v>81.92308044433594</v>
+      </c>
+      <c r="F107">
+        <v>77.44466400146484</v>
+      </c>
+      <c r="G107">
+        <v>7070752</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" s="2">
+        <v>45083</v>
+      </c>
+      <c r="B108">
+        <v>81.98996734619141</v>
+      </c>
+      <c r="C108">
+        <v>83.30267333984375</v>
+      </c>
+      <c r="D108">
+        <v>81.34615325927734</v>
+      </c>
+      <c r="E108">
+        <v>82.18227386474609</v>
+      </c>
+      <c r="F108">
+        <v>77.68968200683594</v>
+      </c>
+      <c r="G108">
+        <v>5351024</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" s="2">
+        <v>45084</v>
+      </c>
+      <c r="B109">
+        <v>82.54180908203125</v>
+      </c>
+      <c r="C109">
+        <v>84.58193969726562</v>
+      </c>
+      <c r="D109">
+        <v>81.60535430908203</v>
+      </c>
+      <c r="E109">
+        <v>84.44815826416016</v>
+      </c>
+      <c r="F109">
+        <v>79.83169555664062</v>
+      </c>
+      <c r="G109">
+        <v>3996075</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" s="2">
+        <v>45085</v>
+      </c>
+      <c r="B110">
+        <v>84.28093719482422</v>
+      </c>
+      <c r="C110">
+        <v>84.74080657958984</v>
+      </c>
+      <c r="D110">
+        <v>83.26087188720703</v>
+      </c>
+      <c r="E110">
+        <v>84.24748992919922</v>
+      </c>
+      <c r="F110">
+        <v>79.64199829101562</v>
+      </c>
+      <c r="G110">
+        <v>3768476</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" s="2">
+        <v>45086</v>
+      </c>
+      <c r="B111">
+        <v>84.19732666015625</v>
+      </c>
+      <c r="C111">
+        <v>84.94147491455078</v>
+      </c>
+      <c r="D111">
+        <v>82.10702514648438</v>
+      </c>
+      <c r="E111">
+        <v>83.52842712402344</v>
+      </c>
+      <c r="F111">
+        <v>78.96224975585938</v>
+      </c>
+      <c r="G111">
+        <v>5398266</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" s="2">
+        <v>45089</v>
+      </c>
+      <c r="B112">
+        <v>83.90467834472656</v>
+      </c>
+      <c r="C112">
+        <v>85.65217590332031</v>
+      </c>
+      <c r="D112">
+        <v>83.78762817382812</v>
+      </c>
+      <c r="E112">
+        <v>84.66555023193359</v>
+      </c>
+      <c r="F112">
+        <v>80.03720092773438</v>
+      </c>
+      <c r="G112">
+        <v>4185880</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" s="2">
+        <v>45090</v>
+      </c>
+      <c r="B113">
+        <v>84.66555023193359</v>
+      </c>
+      <c r="C113">
+        <v>86.23745727539062</v>
+      </c>
+      <c r="D113">
+        <v>84.31438446044922</v>
+      </c>
+      <c r="E113">
+        <v>85.90300750732422</v>
+      </c>
+      <c r="F113">
+        <v>81.20701599121094</v>
+      </c>
+      <c r="G113">
+        <v>3926827</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" s="2">
+        <v>45091</v>
+      </c>
+      <c r="B114">
+        <v>86.25418090820312</v>
+      </c>
+      <c r="C114">
+        <v>86.68060302734375</v>
+      </c>
+      <c r="D114">
+        <v>84.59030151367188</v>
+      </c>
+      <c r="E114">
+        <v>85.24247741699219</v>
+      </c>
+      <c r="F114">
+        <v>80.58259582519531</v>
+      </c>
+      <c r="G114">
+        <v>3888196</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115" s="2">
+        <v>45092</v>
+      </c>
+      <c r="B115">
+        <v>85.20066833496094</v>
+      </c>
+      <c r="C115">
+        <v>87.03177642822266</v>
+      </c>
+      <c r="D115">
+        <v>84.966552734375</v>
+      </c>
+      <c r="E115">
+        <v>86.79766082763672</v>
+      </c>
+      <c r="F115">
+        <v>82.05276489257812</v>
+      </c>
+      <c r="G115">
+        <v>3375590</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" s="2">
+        <v>45093</v>
+      </c>
+      <c r="B116">
+        <v>87.16555023193359</v>
+      </c>
+      <c r="C116">
+        <v>87.70066833496094</v>
+      </c>
+      <c r="D116">
+        <v>86.26254272460938</v>
+      </c>
+      <c r="E116">
+        <v>87.40802764892578</v>
+      </c>
+      <c r="F116">
+        <v>82.6297607421875</v>
+      </c>
+      <c r="G116">
+        <v>7412210</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" s="2">
+        <v>45097</v>
+      </c>
+      <c r="B117">
+        <v>85.93645477294922</v>
+      </c>
+      <c r="C117">
+        <v>86.06187438964844</v>
+      </c>
+      <c r="D117">
+        <v>84.51505279541016</v>
+      </c>
+      <c r="E117">
+        <v>85.53511810302734</v>
+      </c>
+      <c r="F117">
+        <v>80.85924530029297</v>
+      </c>
+      <c r="G117">
+        <v>3284455</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" s="2">
+        <v>45098</v>
+      </c>
+      <c r="B118">
+        <v>85.00836181640625</v>
+      </c>
+      <c r="C118">
+        <v>85.52675628662109</v>
+      </c>
+      <c r="D118">
+        <v>84.28093719482422</v>
+      </c>
+      <c r="E118">
+        <v>84.84114074707031</v>
+      </c>
+      <c r="F118">
+        <v>80.20320129394531</v>
+      </c>
+      <c r="G118">
+        <v>3011648</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" s="2">
+        <v>45099</v>
+      </c>
+      <c r="B119">
+        <v>84.69063568115234</v>
+      </c>
+      <c r="C119">
+        <v>84.70735931396484</v>
+      </c>
+      <c r="D119">
+        <v>83.31103515625</v>
+      </c>
+      <c r="E119">
+        <v>83.97157287597656</v>
+      </c>
+      <c r="F119">
+        <v>79.38116455078125</v>
+      </c>
+      <c r="G119">
+        <v>3103500</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" s="2">
+        <v>45100</v>
+      </c>
+      <c r="B120">
+        <v>86.37123870849609</v>
+      </c>
+      <c r="C120">
+        <v>86.53845977783203</v>
+      </c>
+      <c r="D120">
+        <v>83.17726135253906</v>
+      </c>
+      <c r="E120">
+        <v>84.21405029296875</v>
+      </c>
+      <c r="F120">
+        <v>79.61038970947266</v>
+      </c>
+      <c r="G120">
+        <v>9342315</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" s="2">
+        <v>45103</v>
+      </c>
+      <c r="B121">
+        <v>83.61203765869141</v>
+      </c>
+      <c r="C121">
+        <v>84.35618591308594</v>
+      </c>
+      <c r="D121">
+        <v>83.16889953613281</v>
+      </c>
+      <c r="E121">
+        <v>83.95484924316406</v>
+      </c>
+      <c r="F121">
+        <v>79.3653564453125</v>
+      </c>
+      <c r="G121">
+        <v>4371858</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" s="2">
+        <v>45104</v>
+      </c>
+      <c r="B122">
+        <v>83.54515075683594</v>
+      </c>
+      <c r="C122">
+        <v>83.79598999023438</v>
+      </c>
+      <c r="D122">
+        <v>81.99832916259766</v>
+      </c>
+      <c r="E122">
+        <v>82.15718841552734</v>
+      </c>
+      <c r="F122">
+        <v>77.66596221923828</v>
+      </c>
+      <c r="G122">
+        <v>6493562</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" s="2">
+        <v>45105</v>
+      </c>
+      <c r="B123">
+        <v>82.15718841552734</v>
+      </c>
+      <c r="C123">
+        <v>83.00167083740234</v>
+      </c>
+      <c r="D123">
+        <v>81.74748992919922</v>
+      </c>
+      <c r="E123">
+        <v>82.41638946533203</v>
+      </c>
+      <c r="F123">
+        <v>77.91099548339844</v>
+      </c>
+      <c r="G123">
+        <v>4539538</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" s="2">
+        <v>45106</v>
+      </c>
+      <c r="B124">
+        <v>82.02341461181641</v>
+      </c>
+      <c r="C124">
+        <v>83.16053771972656</v>
+      </c>
+      <c r="D124">
+        <v>81.87290954589844</v>
+      </c>
+      <c r="E124">
+        <v>82.97658538818359</v>
+      </c>
+      <c r="F124">
+        <v>78.44056701660156</v>
+      </c>
+      <c r="G124">
+        <v>4182292</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" s="2">
+        <v>45107</v>
+      </c>
+      <c r="B125">
+        <v>83.62039947509766</v>
+      </c>
+      <c r="C125">
+        <v>83.94648742675781</v>
+      </c>
+      <c r="D125">
+        <v>82.94314575195312</v>
+      </c>
+      <c r="E125">
+        <v>83.68729400634766</v>
+      </c>
+      <c r="F125">
+        <v>79.1124267578125</v>
+      </c>
+      <c r="G125">
+        <v>6084052</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126" s="2">
+        <v>45110</v>
+      </c>
+      <c r="B126">
+        <v>83.77926635742188</v>
+      </c>
+      <c r="C126">
+        <v>84.81605529785156</v>
+      </c>
+      <c r="D126">
+        <v>83.54515075683594</v>
+      </c>
+      <c r="E126">
+        <v>84.56521606445312</v>
+      </c>
+      <c r="F126">
+        <v>79.94235992431641</v>
+      </c>
+      <c r="G126">
+        <v>1913002</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" s="2">
+        <v>45112</v>
+      </c>
+      <c r="B127">
+        <v>84.27257537841797</v>
+      </c>
+      <c r="C127">
+        <v>84.75752258300781</v>
+      </c>
+      <c r="D127">
+        <v>82.41638946533203</v>
+      </c>
+      <c r="E127">
+        <v>82.466552734375</v>
+      </c>
+      <c r="F127">
+        <v>77.95841979980469</v>
+      </c>
+      <c r="G127">
+        <v>4716306</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128" s="2">
+        <v>45113</v>
+      </c>
+      <c r="B128">
+        <v>81.93979644775391</v>
+      </c>
+      <c r="C128">
+        <v>82.00669097900391</v>
+      </c>
+      <c r="D128">
+        <v>79.90802764892578</v>
+      </c>
+      <c r="E128">
+        <v>80.52675628662109</v>
+      </c>
+      <c r="F128">
+        <v>76.12466430664062</v>
+      </c>
+      <c r="G128">
+        <v>6137035</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129" s="2">
+        <v>45114</v>
+      </c>
+      <c r="B129">
+        <v>80.42642211914062</v>
+      </c>
+      <c r="C129">
+        <v>82.76755523681641</v>
+      </c>
+      <c r="D129">
+        <v>80.40969848632812</v>
+      </c>
+      <c r="E129">
+        <v>81.34615325927734</v>
+      </c>
+      <c r="F129">
+        <v>76.89926147460938</v>
+      </c>
+      <c r="G129">
+        <v>4770126</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130" s="2">
+        <v>45117</v>
+      </c>
+      <c r="B130">
+        <v>81.20401000976562</v>
+      </c>
+      <c r="C130">
+        <v>82.36621856689453</v>
+      </c>
+      <c r="D130">
+        <v>81.00334167480469</v>
+      </c>
+      <c r="E130">
+        <v>81.26254272460938</v>
+      </c>
+      <c r="F130">
+        <v>76.82023620605469</v>
+      </c>
+      <c r="G130">
+        <v>4506408</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131" s="2">
+        <v>45118</v>
+      </c>
+      <c r="B131">
+        <v>82.55852508544922</v>
+      </c>
+      <c r="C131">
+        <v>85.30936431884766</v>
+      </c>
+      <c r="D131">
+        <v>82.25752258300781</v>
+      </c>
+      <c r="E131">
+        <v>85.21739196777344</v>
+      </c>
+      <c r="F131">
+        <v>80.55887603759766</v>
+      </c>
+      <c r="G131">
+        <v>7477392</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132" s="2">
+        <v>45119</v>
+      </c>
+      <c r="B132">
+        <v>86.52173614501953</v>
+      </c>
+      <c r="C132">
+        <v>87.18227386474609</v>
+      </c>
+      <c r="D132">
+        <v>84.88294219970703</v>
+      </c>
+      <c r="E132">
+        <v>84.92475128173828</v>
+      </c>
+      <c r="F132">
+        <v>80.28223419189453</v>
+      </c>
+      <c r="G132">
+        <v>4345307</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133" s="2">
+        <v>45120</v>
+      </c>
+      <c r="B133">
+        <v>85.033447265625</v>
+      </c>
+      <c r="C133">
+        <v>86.05351257324219</v>
+      </c>
+      <c r="D133">
+        <v>84.86621856689453</v>
+      </c>
+      <c r="E133">
+        <v>86.00334167480469</v>
+      </c>
+      <c r="F133">
+        <v>81.30186462402344</v>
+      </c>
+      <c r="G133">
+        <v>2980552</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134" s="2">
+        <v>45121</v>
+      </c>
+      <c r="B134">
+        <v>85.91136932373047</v>
+      </c>
+      <c r="C134">
+        <v>85.99497985839844</v>
+      </c>
+      <c r="D134">
+        <v>84.90802764892578</v>
+      </c>
+      <c r="E134">
+        <v>85.53511810302734</v>
+      </c>
+      <c r="F134">
+        <v>80.85924530029297</v>
+      </c>
+      <c r="G134">
+        <v>2650097</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135" s="2">
+        <v>45124</v>
+      </c>
+      <c r="B135">
+        <v>85.20066833496094</v>
+      </c>
+      <c r="C135">
+        <v>85.38461303710938</v>
+      </c>
+      <c r="D135">
+        <v>84.28093719482422</v>
+      </c>
+      <c r="E135">
+        <v>85.033447265625</v>
+      </c>
+      <c r="F135">
+        <v>80.38499450683594</v>
+      </c>
+      <c r="G135">
+        <v>2753312</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136" s="2">
+        <v>45125</v>
+      </c>
+      <c r="B136">
+        <v>84.966552734375</v>
+      </c>
+      <c r="C136">
+        <v>86.57190704345703</v>
+      </c>
+      <c r="D136">
+        <v>84.74080657958984</v>
+      </c>
+      <c r="E136">
+        <v>86.12876129150391</v>
+      </c>
+      <c r="F136">
+        <v>81.42042541503906</v>
+      </c>
+      <c r="G136">
+        <v>2978877</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137" s="2">
+        <v>45126</v>
+      </c>
+      <c r="B137">
+        <v>85.99497985839844</v>
+      </c>
+      <c r="C137">
+        <v>86.75585174560547</v>
+      </c>
+      <c r="D137">
+        <v>85.78594970703125</v>
+      </c>
+      <c r="E137">
+        <v>86.52173614501953</v>
+      </c>
+      <c r="F137">
+        <v>81.79192352294922</v>
+      </c>
+      <c r="G137">
+        <v>2498324</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138" s="2">
+        <v>45127</v>
+      </c>
+      <c r="B138">
+        <v>86.26254272460938</v>
+      </c>
+      <c r="C138">
+        <v>87.56688690185547</v>
+      </c>
+      <c r="D138">
+        <v>85.71070098876953</v>
+      </c>
+      <c r="E138">
+        <v>87.19899749755859</v>
+      </c>
+      <c r="F138">
+        <v>82.43215942382812</v>
+      </c>
+      <c r="G138">
+        <v>3428095</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139" s="2">
+        <v>45128</v>
+      </c>
+      <c r="B139">
+        <v>87.09866333007812</v>
+      </c>
+      <c r="C139">
+        <v>87.40802764892578</v>
+      </c>
+      <c r="D139">
+        <v>86.30435180664062</v>
+      </c>
+      <c r="E139">
+        <v>87.23244476318359</v>
+      </c>
+      <c r="F139">
+        <v>82.46377563476562</v>
+      </c>
+      <c r="G139">
+        <v>2992392</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140" s="2">
+        <v>45131</v>
+      </c>
+      <c r="B140">
+        <v>87.39966583251953</v>
+      </c>
+      <c r="C140">
+        <v>88.2943115234375</v>
+      </c>
+      <c r="D140">
+        <v>86.93979644775391</v>
+      </c>
+      <c r="E140">
+        <v>87.18227386474609</v>
+      </c>
+      <c r="F140">
+        <v>82.41635131835938</v>
+      </c>
+      <c r="G140">
+        <v>3986746</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141" s="2">
+        <v>45132</v>
+      </c>
+      <c r="B141">
+        <v>89.92475128173828</v>
+      </c>
+      <c r="C141">
+        <v>92.68394470214844</v>
+      </c>
+      <c r="D141">
+        <v>89.47324371337891</v>
+      </c>
+      <c r="E141">
+        <v>91.83110046386719</v>
+      </c>
+      <c r="F141">
+        <v>86.81104278564453</v>
+      </c>
+      <c r="G141">
+        <v>10499564</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142" s="2">
+        <v>45133</v>
+      </c>
+      <c r="B142">
+        <v>91.83946228027344</v>
+      </c>
+      <c r="C142">
+        <v>94.54013061523438</v>
+      </c>
+      <c r="D142">
+        <v>91.83946228027344</v>
+      </c>
+      <c r="E142">
+        <v>94.18060302734375</v>
+      </c>
+      <c r="F142">
+        <v>89.03211212158203</v>
+      </c>
+      <c r="G142">
+        <v>6691620</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143" s="2">
+        <v>45134</v>
+      </c>
+      <c r="B143">
+        <v>92.34949493408203</v>
+      </c>
+      <c r="C143">
+        <v>94.59866333007812</v>
+      </c>
+      <c r="D143">
+        <v>92.34949493408203</v>
+      </c>
+      <c r="E143">
+        <v>92.96822357177734</v>
+      </c>
+      <c r="F143">
+        <v>87.88600158691406</v>
+      </c>
+      <c r="G143">
+        <v>6713746</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144" s="2">
+        <v>45135</v>
+      </c>
+      <c r="B144">
+        <v>93.53678894042969</v>
+      </c>
+      <c r="C144">
+        <v>93.98829650878906</v>
+      </c>
+      <c r="D144">
+        <v>92.85117340087891</v>
+      </c>
+      <c r="E144">
+        <v>93.54515075683594</v>
+      </c>
+      <c r="F144">
+        <v>88.431396484375</v>
+      </c>
+      <c r="G144">
+        <v>3479762</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145" s="2">
+        <v>45138</v>
+      </c>
+      <c r="B145">
+        <v>93.54515075683594</v>
+      </c>
+      <c r="C145">
+        <v>93.87123870849609</v>
+      </c>
+      <c r="D145">
+        <v>92.69230651855469</v>
+      </c>
+      <c r="E145">
+        <v>93.22742462158203</v>
+      </c>
+      <c r="F145">
+        <v>88.13103485107422</v>
+      </c>
+      <c r="G145">
+        <v>8661312</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146" s="2">
+        <v>45139</v>
+      </c>
+      <c r="B146">
+        <v>93.22742462158203</v>
+      </c>
+      <c r="C146">
+        <v>93.57859802246094</v>
+      </c>
+      <c r="D146">
+        <v>92.24916076660156</v>
+      </c>
+      <c r="E146">
+        <v>92.44147491455078</v>
+      </c>
+      <c r="F146">
+        <v>87.38805389404297</v>
+      </c>
+      <c r="G146">
+        <v>3414819</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147" s="2">
+        <v>45140</v>
+      </c>
+      <c r="B147">
+        <v>91.55518341064453</v>
+      </c>
+      <c r="C147">
+        <v>91.88963317871094</v>
+      </c>
+      <c r="D147">
+        <v>90.43478393554688</v>
+      </c>
+      <c r="E147">
+        <v>91.06187438964844</v>
+      </c>
+      <c r="F147">
+        <v>86.08386993408203</v>
+      </c>
+      <c r="G147">
+        <v>3810934</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148" s="2">
+        <v>45141</v>
+      </c>
+      <c r="B148">
+        <v>90.71906280517578</v>
+      </c>
+      <c r="C148">
+        <v>91.00334167480469</v>
+      </c>
+      <c r="D148">
+        <v>89.40635681152344</v>
+      </c>
+      <c r="E148">
+        <v>89.62374877929688</v>
+      </c>
+      <c r="F148">
+        <v>84.72435760498047</v>
+      </c>
+      <c r="G148">
+        <v>3374514</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149" s="2">
+        <v>45142</v>
+      </c>
+      <c r="B149">
+        <v>89.93311309814453</v>
+      </c>
+      <c r="C149">
+        <v>90.28427886962891</v>
+      </c>
+      <c r="D149">
+        <v>87.85117340087891</v>
+      </c>
+      <c r="E149">
+        <v>88.21906280517578</v>
+      </c>
+      <c r="F149">
+        <v>83.39646148681641</v>
+      </c>
+      <c r="G149">
+        <v>3487775</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150" s="2">
+        <v>45145</v>
+      </c>
+      <c r="B150">
+        <v>88.62876129150391</v>
+      </c>
+      <c r="C150">
+        <v>89.08863067626953</v>
+      </c>
+      <c r="D150">
+        <v>87.70066833496094</v>
+      </c>
+      <c r="E150">
+        <v>87.98494720458984</v>
+      </c>
+      <c r="F150">
+        <v>83.17514801025391</v>
+      </c>
+      <c r="G150">
+        <v>3001242</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151" s="2">
+        <v>45146</v>
+      </c>
+      <c r="B151">
+        <v>87.21572113037109</v>
+      </c>
+      <c r="C151">
+        <v>87.29096984863281</v>
+      </c>
+      <c r="D151">
+        <v>85.74414825439453</v>
+      </c>
+      <c r="E151">
+        <v>87.05685424804688</v>
+      </c>
+      <c r="F151">
+        <v>82.29779052734375</v>
+      </c>
+      <c r="G151">
+        <v>3483350</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152" s="2">
+        <v>45147</v>
+      </c>
+      <c r="B152">
+        <v>86.87290954589844</v>
+      </c>
+      <c r="C152">
+        <v>87.533447265625</v>
+      </c>
+      <c r="D152">
+        <v>86.46321105957031</v>
+      </c>
+      <c r="E152">
+        <v>86.71405029296875</v>
+      </c>
+      <c r="F152">
+        <v>81.97371673583984</v>
+      </c>
+      <c r="G152">
+        <v>2565540</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153" s="2">
+        <v>45148</v>
+      </c>
+      <c r="B153">
+        <v>87.01505279541016</v>
+      </c>
+      <c r="C153">
+        <v>88.50334167480469</v>
+      </c>
+      <c r="D153">
+        <v>86.42976379394531</v>
+      </c>
+      <c r="E153">
+        <v>86.87290954589844</v>
+      </c>
+      <c r="F153">
+        <v>82.12389373779297</v>
+      </c>
+      <c r="G153">
+        <v>2633951</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154" s="2">
+        <v>45149</v>
+      </c>
+      <c r="B154">
+        <v>86.81438446044922</v>
+      </c>
+      <c r="C154">
+        <v>87.61705780029297</v>
+      </c>
+      <c r="D154">
+        <v>86.48829650878906</v>
+      </c>
+      <c r="E154">
+        <v>87.41638946533203</v>
+      </c>
+      <c r="F154">
+        <v>82.63766479492188</v>
+      </c>
+      <c r="G154">
+        <v>1947925</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155" s="2">
+        <v>45152</v>
+      </c>
+      <c r="B155">
+        <v>87.09030151367188</v>
+      </c>
+      <c r="C155">
+        <v>87.21572113037109</v>
+      </c>
+      <c r="D155">
+        <v>86.03678894042969</v>
+      </c>
+      <c r="E155">
+        <v>86.47157287597656</v>
+      </c>
+      <c r="F155">
+        <v>81.7445068359375</v>
+      </c>
+      <c r="G155">
+        <v>3653062</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156" s="2">
+        <v>45153</v>
+      </c>
+      <c r="B156">
+        <v>85.74414825439453</v>
+      </c>
+      <c r="C156">
+        <v>86.02006530761719</v>
+      </c>
+      <c r="D156">
+        <v>84.38127136230469</v>
+      </c>
+      <c r="E156">
+        <v>84.56521606445312</v>
+      </c>
+      <c r="F156">
+        <v>79.94235992431641</v>
+      </c>
+      <c r="G156">
+        <v>4000859</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157" s="2">
+        <v>45154</v>
+      </c>
+      <c r="B157">
+        <v>84.25585174560547</v>
+      </c>
+      <c r="C157">
+        <v>85.05852508544922</v>
+      </c>
+      <c r="D157">
+        <v>83.99665832519531</v>
+      </c>
+      <c r="E157">
+        <v>84.27257537841797</v>
+      </c>
+      <c r="F157">
+        <v>79.66571807861328</v>
+      </c>
+      <c r="G157">
+        <v>3412666</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158" s="2">
+        <v>45155</v>
+      </c>
+      <c r="B158">
+        <v>84.64046478271484</v>
+      </c>
+      <c r="C158">
+        <v>85.88629150390625</v>
+      </c>
+      <c r="D158">
+        <v>84.53177642822266</v>
+      </c>
+      <c r="E158">
+        <v>85.11705780029297</v>
+      </c>
+      <c r="F158">
+        <v>80.46402740478516</v>
+      </c>
+      <c r="G158">
+        <v>4071304</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159" s="2">
+        <v>45156</v>
+      </c>
+      <c r="B159">
+        <v>83.59532165527344</v>
+      </c>
+      <c r="C159">
+        <v>84.02173614501953</v>
+      </c>
+      <c r="D159">
+        <v>83.26087188720703</v>
+      </c>
+      <c r="E159">
+        <v>83.62039947509766</v>
+      </c>
+      <c r="F159">
+        <v>80.46724700927734</v>
+      </c>
+      <c r="G159">
+        <v>3150742</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160" s="2">
+        <v>45159</v>
+      </c>
+      <c r="B160">
+        <v>83.61203765869141</v>
+      </c>
+      <c r="C160">
+        <v>83.69564819335938</v>
+      </c>
+      <c r="D160">
+        <v>82.38294219970703</v>
+      </c>
+      <c r="E160">
+        <v>82.93478393554688</v>
+      </c>
+      <c r="F160">
+        <v>79.80747985839844</v>
+      </c>
+      <c r="G160">
+        <v>2754029</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161" s="2">
+        <v>45160</v>
+      </c>
+      <c r="B161">
+        <v>83.33612060546875</v>
+      </c>
+      <c r="C161">
+        <v>83.3779296875</v>
+      </c>
+      <c r="D161">
+        <v>82.03177642822266</v>
+      </c>
+      <c r="E161">
+        <v>82.36621856689453</v>
+      </c>
+      <c r="F161">
+        <v>79.26035308837891</v>
+      </c>
+      <c r="G161">
+        <v>3097879</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162" s="2">
+        <v>45161</v>
+      </c>
+      <c r="B162">
+        <v>82.56688690185547</v>
+      </c>
+      <c r="C162">
+        <v>83.76254272460938</v>
+      </c>
+      <c r="D162">
+        <v>81.68896484375</v>
+      </c>
+      <c r="E162">
+        <v>83.31939697265625</v>
+      </c>
+      <c r="F162">
+        <v>80.17758941650391</v>
+      </c>
+      <c r="G162">
+        <v>3904820</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163" s="2">
+        <v>45162</v>
+      </c>
+      <c r="B163">
+        <v>83.00167083740234</v>
+      </c>
+      <c r="C163">
+        <v>84.1722412109375</v>
+      </c>
+      <c r="D163">
+        <v>82.34949493408203</v>
+      </c>
+      <c r="E163">
+        <v>82.35785675048828</v>
+      </c>
+      <c r="F163">
+        <v>79.25230407714844</v>
+      </c>
+      <c r="G163">
+        <v>2272400</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164" s="2">
+        <v>45163</v>
+      </c>
+      <c r="B164">
+        <v>82.75919342041016</v>
+      </c>
+      <c r="C164">
+        <v>83.11872863769531</v>
+      </c>
+      <c r="D164">
+        <v>81.95652008056641</v>
+      </c>
+      <c r="E164">
+        <v>82.73411560058594</v>
+      </c>
+      <c r="F164">
+        <v>79.61438751220703</v>
+      </c>
+      <c r="G164">
+        <v>2617566</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165" s="2">
+        <v>45166</v>
+      </c>
+      <c r="B165">
+        <v>88.05184173583984</v>
+      </c>
+      <c r="C165">
+        <v>88.33612060546875</v>
+      </c>
+      <c r="D165">
+        <v>85.77759552001953</v>
+      </c>
+      <c r="E165">
+        <v>87.05685424804688</v>
+      </c>
+      <c r="F165">
+        <v>83.77411651611328</v>
+      </c>
+      <c r="G165">
+        <v>9135646</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166" s="2">
+        <v>45167</v>
+      </c>
+      <c r="B166">
+        <v>87.78427886962891</v>
+      </c>
+      <c r="C166">
+        <v>89.33946228027344</v>
+      </c>
+      <c r="D166">
+        <v>87.69230651855469</v>
+      </c>
+      <c r="E166">
+        <v>88.26923370361328</v>
+      </c>
+      <c r="F166">
+        <v>84.94078826904297</v>
+      </c>
+      <c r="G166">
+        <v>6270867</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167" s="2">
+        <v>45168</v>
+      </c>
+      <c r="B167">
+        <v>88.20233917236328</v>
+      </c>
+      <c r="C167">
+        <v>88.50334167480469</v>
+      </c>
+      <c r="D167">
+        <v>86.63043212890625</v>
+      </c>
+      <c r="E167">
+        <v>87.33277893066406</v>
+      </c>
+      <c r="F167">
+        <v>84.03964233398438</v>
+      </c>
+      <c r="G167">
+        <v>3915584</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168" s="2">
+        <v>45169</v>
+      </c>
+      <c r="B168">
+        <v>88.57859802246094</v>
+      </c>
+      <c r="C168">
+        <v>90.57691955566406</v>
+      </c>
+      <c r="D168">
+        <v>88.20233917236328</v>
+      </c>
+      <c r="E168">
+        <v>89.18896484375</v>
+      </c>
+      <c r="F168">
+        <v>85.82582855224609</v>
+      </c>
+      <c r="G168">
+        <v>7781296</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169" s="2">
+        <v>45170</v>
+      </c>
+      <c r="B169">
+        <v>89.71572113037109</v>
+      </c>
+      <c r="C169">
+        <v>90.55184173583984</v>
+      </c>
+      <c r="D169">
+        <v>88.72073364257812</v>
+      </c>
+      <c r="E169">
+        <v>89.42308044433594</v>
+      </c>
+      <c r="F169">
+        <v>86.05111694335938</v>
+      </c>
+      <c r="G169">
+        <v>4354038</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170" s="2">
+        <v>45174</v>
+      </c>
+      <c r="B170">
+        <v>89.29766082763672</v>
+      </c>
+      <c r="C170">
+        <v>90.51839447021484</v>
+      </c>
+      <c r="D170">
+        <v>88.94648742675781</v>
+      </c>
+      <c r="E170">
+        <v>89.33946228027344</v>
+      </c>
+      <c r="F170">
+        <v>85.97064971923828</v>
+      </c>
+      <c r="G170">
+        <v>5817583</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171" s="2">
+        <v>45175</v>
+      </c>
+      <c r="B171">
+        <v>89.06354522705078</v>
+      </c>
+      <c r="C171">
+        <v>89.30602264404297</v>
+      </c>
+      <c r="D171">
+        <v>88.07691955566406</v>
+      </c>
+      <c r="E171">
+        <v>88.93812561035156</v>
+      </c>
+      <c r="F171">
+        <v>85.58444976806641</v>
+      </c>
+      <c r="G171">
+        <v>3210423</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172" s="2">
+        <v>45176</v>
+      </c>
+      <c r="B172">
+        <v>88.77926635742188</v>
+      </c>
+      <c r="C172">
+        <v>89.28929901123047</v>
+      </c>
+      <c r="D172">
+        <v>87.75919342041016</v>
+      </c>
+      <c r="E172">
+        <v>88.58695983886719</v>
+      </c>
+      <c r="F172">
+        <v>85.24652862548828</v>
+      </c>
+      <c r="G172">
+        <v>3476652</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173" s="2">
+        <v>45177</v>
+      </c>
+      <c r="B173">
+        <v>88.69564819335938</v>
+      </c>
+      <c r="C173">
+        <v>88.95484924316406</v>
+      </c>
+      <c r="D173">
+        <v>88.14381408691406</v>
+      </c>
+      <c r="E173">
+        <v>88.82942962646484</v>
+      </c>
+      <c r="F173">
+        <v>85.47985076904297</v>
+      </c>
+      <c r="G173">
+        <v>3317824</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B174">
+        <v>89.46488189697266</v>
+      </c>
+      <c r="C174">
+        <v>90.48494720458984</v>
+      </c>
+      <c r="D174">
+        <v>89.28929901123047</v>
+      </c>
+      <c r="E174">
+        <v>90.20903015136719</v>
+      </c>
+      <c r="F174">
+        <v>86.80743408203125</v>
+      </c>
+      <c r="G174">
+        <v>3398314</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175" s="2">
+        <v>45181</v>
+      </c>
+      <c r="B175">
+        <v>89.92475128173828</v>
+      </c>
+      <c r="C175">
+        <v>90.96990203857422</v>
+      </c>
+      <c r="D175">
+        <v>89.52341461181641</v>
+      </c>
+      <c r="E175">
+        <v>89.59866333007812</v>
+      </c>
+      <c r="F175">
+        <v>86.22008514404297</v>
+      </c>
+      <c r="G175">
+        <v>3823134</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176" s="2">
+        <v>45182</v>
+      </c>
+      <c r="B176">
+        <v>89.58193969726562</v>
+      </c>
+      <c r="C176">
+        <v>89.85785675048828</v>
+      </c>
+      <c r="D176">
+        <v>84.03845977783203</v>
+      </c>
+      <c r="E176">
+        <v>84.48996734619141</v>
+      </c>
+      <c r="F176">
+        <v>81.30402374267578</v>
+      </c>
+      <c r="G176">
+        <v>9059820</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177" s="2">
+        <v>45183</v>
+      </c>
+      <c r="B177">
+        <v>84.94983673095703</v>
+      </c>
+      <c r="C177">
+        <v>86.59699249267578</v>
+      </c>
+      <c r="D177">
+        <v>84.62374877929688</v>
+      </c>
+      <c r="E177">
+        <v>85.55184173583984</v>
+      </c>
+      <c r="F177">
+        <v>82.32585144042969</v>
+      </c>
+      <c r="G177">
+        <v>5004184</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
+      <c r="A178" s="2">
+        <v>45184</v>
+      </c>
+      <c r="B178">
+        <v>85.19230651855469</v>
+      </c>
+      <c r="C178">
+        <v>85.62709045410156</v>
+      </c>
+      <c r="D178">
+        <v>84.155517578125</v>
+      </c>
+      <c r="E178">
+        <v>84.49832916259766</v>
+      </c>
+      <c r="F178">
+        <v>81.31207275390625</v>
+      </c>
+      <c r="G178">
+        <v>7178631</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
+      <c r="A179" s="2">
+        <v>45187</v>
+      </c>
+      <c r="B179">
+        <v>84.49832916259766</v>
+      </c>
+      <c r="C179">
+        <v>85.20066833496094</v>
+      </c>
+      <c r="D179">
+        <v>83.70401000976562</v>
+      </c>
+      <c r="E179">
+        <v>84.48160552978516</v>
+      </c>
+      <c r="F179">
+        <v>81.29598236083984</v>
+      </c>
+      <c r="G179">
+        <v>5141006</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
+      <c r="A180" s="2">
+        <v>45188</v>
+      </c>
+      <c r="B180">
+        <v>84.45652008056641</v>
+      </c>
+      <c r="C180">
+        <v>84.65718841552734</v>
+      </c>
+      <c r="D180">
+        <v>83.50334167480469</v>
+      </c>
+      <c r="E180">
+        <v>83.80435180664062</v>
+      </c>
+      <c r="F180">
+        <v>80.64425659179688</v>
+      </c>
+      <c r="G180">
+        <v>3192483</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
+      <c r="A181" s="2">
+        <v>45189</v>
+      </c>
+      <c r="B181">
+        <v>83.65384674072266</v>
+      </c>
+      <c r="C181">
+        <v>84.36454772949219</v>
+      </c>
+      <c r="D181">
+        <v>82.75919342041016</v>
+      </c>
+      <c r="E181">
+        <v>82.76755523681641</v>
+      </c>
+      <c r="F181">
+        <v>79.64656066894531</v>
+      </c>
+      <c r="G181">
+        <v>2936300</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
+      <c r="A182" s="2">
+        <v>45190</v>
+      </c>
+      <c r="B182">
+        <v>82.39966583251953</v>
+      </c>
+      <c r="C182">
+        <v>82.95986938476562</v>
+      </c>
+      <c r="D182">
+        <v>81.43812561035156</v>
+      </c>
+      <c r="E182">
+        <v>81.51337432861328</v>
+      </c>
+      <c r="F182">
+        <v>78.43966674804688</v>
+      </c>
+      <c r="G182">
+        <v>4252856</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
+      <c r="A183" s="2">
+        <v>45191</v>
+      </c>
+      <c r="B183">
+        <v>81.59699249267578</v>
+      </c>
+      <c r="C183">
+        <v>81.77257537841797</v>
+      </c>
+      <c r="D183">
+        <v>80.76923370361328</v>
+      </c>
+      <c r="E183">
+        <v>81.13712310791016</v>
+      </c>
+      <c r="F183">
+        <v>78.07760620117188</v>
+      </c>
+      <c r="G183">
+        <v>4172724</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
+      <c r="A184" s="2">
+        <v>45194</v>
+      </c>
+      <c r="B184">
+        <v>80.74414825439453</v>
+      </c>
+      <c r="C184">
+        <v>81.02006530761719</v>
+      </c>
+      <c r="D184">
+        <v>78.39464569091797</v>
+      </c>
+      <c r="E184">
+        <v>79.25585174560547</v>
+      </c>
+      <c r="F184">
+        <v>76.26727294921875</v>
+      </c>
+      <c r="G184">
+        <v>5315263</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
+      <c r="A185" s="2">
+        <v>45195</v>
+      </c>
+      <c r="B185">
+        <v>78.89632415771484</v>
+      </c>
+      <c r="C185">
+        <v>79.52341461181641</v>
+      </c>
+      <c r="D185">
+        <v>78.27759552001953</v>
+      </c>
+      <c r="E185">
+        <v>78.49497985839844</v>
+      </c>
+      <c r="F185">
+        <v>75.53509521484375</v>
+      </c>
+      <c r="G185">
+        <v>4159927</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
+      <c r="A186" s="2">
+        <v>45196</v>
+      </c>
+      <c r="B186">
+        <v>78.70401000976562</v>
+      </c>
+      <c r="C186">
+        <v>78.90467834472656</v>
+      </c>
+      <c r="D186">
+        <v>77.83444976806641</v>
+      </c>
+      <c r="E186">
+        <v>78.14381408691406</v>
+      </c>
+      <c r="F186">
+        <v>75.19717407226562</v>
+      </c>
+      <c r="G186">
+        <v>3669089</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
+      <c r="A187" s="2">
+        <v>45197</v>
+      </c>
+      <c r="B187">
+        <v>77.80100250244141</v>
+      </c>
+      <c r="C187">
+        <v>78.46154022216797</v>
+      </c>
+      <c r="D187">
+        <v>77.26588439941406</v>
+      </c>
+      <c r="E187">
+        <v>77.97658538818359</v>
+      </c>
+      <c r="F187">
+        <v>75.03624725341797</v>
+      </c>
+      <c r="G187">
+        <v>4883866</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
+      <c r="A188" s="2">
+        <v>45198</v>
+      </c>
+      <c r="B188">
+        <v>78.59532165527344</v>
+      </c>
+      <c r="C188">
+        <v>78.87960052490234</v>
+      </c>
+      <c r="D188">
+        <v>78.05184173583984</v>
+      </c>
+      <c r="E188">
+        <v>78.27759552001953</v>
+      </c>
+      <c r="F188">
+        <v>75.32590484619141</v>
+      </c>
+      <c r="G188">
+        <v>3640744</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
+      <c r="A189" s="2">
+        <v>45201</v>
+      </c>
+      <c r="B189">
+        <v>77.466552734375</v>
+      </c>
+      <c r="C189">
+        <v>77.61705780029297</v>
+      </c>
+      <c r="D189">
+        <v>74.67391204833984</v>
+      </c>
+      <c r="E189">
+        <v>75.43478393554688</v>
+      </c>
+      <c r="F189">
+        <v>72.59029388427734</v>
+      </c>
+      <c r="G189">
+        <v>9823466</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
+      <c r="A190" s="2">
+        <v>45202</v>
+      </c>
+      <c r="B190">
+        <v>75.04180908203125</v>
+      </c>
+      <c r="C190">
+        <v>75.20066833496094</v>
+      </c>
+      <c r="D190">
+        <v>73.71237182617188</v>
+      </c>
+      <c r="E190">
+        <v>74.23912811279297</v>
+      </c>
+      <c r="F190">
+        <v>71.43972015380859</v>
+      </c>
+      <c r="G190">
+        <v>6428620</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
+      <c r="A191" s="2">
+        <v>45203</v>
+      </c>
+      <c r="B191">
+        <v>74.08026885986328</v>
+      </c>
+      <c r="C191">
+        <v>74.29766082763672</v>
+      </c>
+      <c r="D191">
+        <v>73.00167083740234</v>
+      </c>
+      <c r="E191">
+        <v>73.59532165527344</v>
+      </c>
+      <c r="F191">
+        <v>70.82019805908203</v>
+      </c>
+      <c r="G191">
+        <v>7799475</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7">
+      <c r="A192" s="2">
+        <v>45204</v>
+      </c>
+      <c r="B192">
+        <v>73.57859802246094</v>
+      </c>
+      <c r="C192">
+        <v>73.77926635742188</v>
+      </c>
+      <c r="D192">
+        <v>72.36621856689453</v>
+      </c>
+      <c r="E192">
+        <v>73.43645477294922</v>
+      </c>
+      <c r="F192">
+        <v>70.66732025146484</v>
+      </c>
+      <c r="G192">
+        <v>5812799</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7">
+      <c r="A193" s="2">
+        <v>45205</v>
+      </c>
+      <c r="B193">
+        <v>73.07691955566406</v>
+      </c>
+      <c r="C193">
+        <v>74.59030151367188</v>
+      </c>
+      <c r="D193">
+        <v>72.18227386474609</v>
+      </c>
+      <c r="E193">
+        <v>73.91304016113281</v>
+      </c>
+      <c r="F193">
+        <v>71.12593078613281</v>
+      </c>
+      <c r="G193">
+        <v>5331888</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
+      <c r="A194" s="2">
+        <v>45208</v>
+      </c>
+      <c r="B194">
+        <v>73.63712310791016</v>
+      </c>
+      <c r="C194">
+        <v>74.48160552978516</v>
+      </c>
+      <c r="D194">
+        <v>73.53678894042969</v>
+      </c>
+      <c r="E194">
+        <v>74.45652008056641</v>
+      </c>
+      <c r="F194">
+        <v>71.64891815185547</v>
+      </c>
+      <c r="G194">
+        <v>2822082</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7">
+      <c r="A195" s="2">
+        <v>45209</v>
+      </c>
+      <c r="B195">
+        <v>75.25083923339844</v>
+      </c>
+      <c r="C195">
+        <v>76.07859802246094</v>
+      </c>
+      <c r="D195">
+        <v>74.59030151367188</v>
+      </c>
+      <c r="E195">
+        <v>75.78594970703125</v>
+      </c>
+      <c r="F195">
+        <v>72.92821502685547</v>
+      </c>
+      <c r="G195">
+        <v>4435844</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7">
+      <c r="A196" s="2">
+        <v>45210</v>
+      </c>
+      <c r="B196">
+        <v>75.91973114013672</v>
+      </c>
+      <c r="C196">
+        <v>76.07023620605469</v>
+      </c>
+      <c r="D196">
+        <v>75.04180908203125</v>
+      </c>
+      <c r="E196">
+        <v>75.57691955566406</v>
+      </c>
+      <c r="F196">
+        <v>72.72706604003906</v>
+      </c>
+      <c r="G196">
+        <v>2536955</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7">
+      <c r="A197" s="2">
+        <v>45211</v>
+      </c>
+      <c r="B197">
+        <v>75.69397735595703</v>
+      </c>
+      <c r="C197">
+        <v>75.69397735595703</v>
+      </c>
+      <c r="D197">
+        <v>73.96321105957031</v>
+      </c>
+      <c r="E197">
+        <v>74.43143463134766</v>
+      </c>
+      <c r="F197">
+        <v>71.62477874755859</v>
+      </c>
+      <c r="G197">
+        <v>2796128</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
+      <c r="A198" s="2">
+        <v>45212</v>
+      </c>
+      <c r="B198">
+        <v>74.58193969726562</v>
+      </c>
+      <c r="C198">
+        <v>75.12541961669922</v>
+      </c>
+      <c r="D198">
+        <v>73.79598999023438</v>
+      </c>
+      <c r="E198">
+        <v>74.14715576171875</v>
+      </c>
+      <c r="F198">
+        <v>71.35121154785156</v>
+      </c>
+      <c r="G198">
+        <v>2809284</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
+      <c r="A199" s="2">
+        <v>45215</v>
+      </c>
+      <c r="B199">
+        <v>74.34782409667969</v>
+      </c>
+      <c r="C199">
+        <v>75.36788940429688</v>
+      </c>
+      <c r="D199">
+        <v>74.03845977783203</v>
+      </c>
+      <c r="E199">
+        <v>75.20066833496094</v>
+      </c>
+      <c r="F199">
+        <v>72.36500549316406</v>
+      </c>
+      <c r="G199">
+        <v>3186862</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7">
+      <c r="A200" s="2">
+        <v>45216</v>
+      </c>
+      <c r="B200">
+        <v>74.55685424804688</v>
+      </c>
+      <c r="C200">
+        <v>76.12039947509766</v>
+      </c>
+      <c r="D200">
+        <v>74.48160552978516</v>
+      </c>
+      <c r="E200">
+        <v>75.71070098876953</v>
+      </c>
+      <c r="F200">
+        <v>72.85580444335938</v>
+      </c>
+      <c r="G200">
+        <v>2535759</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7">
+      <c r="A201" s="2">
+        <v>45217</v>
+      </c>
+      <c r="B201">
+        <v>75.0167236328125</v>
+      </c>
+      <c r="C201">
+        <v>75.08361053466797</v>
+      </c>
+      <c r="D201">
+        <v>73.68729400634766</v>
+      </c>
+      <c r="E201">
+        <v>73.91304016113281</v>
+      </c>
+      <c r="F201">
+        <v>71.12593078613281</v>
+      </c>
+      <c r="G201">
+        <v>3214130</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7">
+      <c r="A202" s="2">
+        <v>45218</v>
+      </c>
+      <c r="B202">
+        <v>73.57859802246094</v>
+      </c>
+      <c r="C202">
+        <v>74.25585174560547</v>
+      </c>
+      <c r="D202">
+        <v>72.75919342041016</v>
+      </c>
+      <c r="E202">
+        <v>72.79264068603516</v>
+      </c>
+      <c r="F202">
+        <v>70.04777526855469</v>
+      </c>
+      <c r="G202">
+        <v>3667295</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7">
+      <c r="A203" s="2">
+        <v>45219</v>
+      </c>
+      <c r="B203">
+        <v>72.5</v>
+      </c>
+      <c r="C203">
+        <v>73.01003265380859</v>
+      </c>
+      <c r="D203">
+        <v>72.23244476318359</v>
+      </c>
+      <c r="E203">
+        <v>72.36621856689453</v>
+      </c>
+      <c r="F203">
+        <v>69.63743591308594</v>
+      </c>
+      <c r="G203">
+        <v>3056258</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7">
+      <c r="A204" s="2">
+        <v>45222</v>
+      </c>
+      <c r="B204">
+        <v>71.90635681152344</v>
+      </c>
+      <c r="C204">
+        <v>72.60033416748047</v>
+      </c>
+      <c r="D204">
+        <v>71.36287689208984</v>
+      </c>
+      <c r="E204">
+        <v>71.57190704345703</v>
+      </c>
+      <c r="F204">
+        <v>68.87307739257812</v>
+      </c>
+      <c r="G204">
+        <v>4158014</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7">
+      <c r="A205" s="2">
+        <v>45223</v>
+      </c>
+      <c r="B205">
+        <v>75.34281158447266</v>
+      </c>
+      <c r="C205">
+        <v>75.94481658935547</v>
+      </c>
+      <c r="D205">
+        <v>73.92976379394531</v>
+      </c>
+      <c r="E205">
+        <v>75.35117340087891</v>
+      </c>
+      <c r="F205">
+        <v>72.50983428955078</v>
+      </c>
+      <c r="G205">
+        <v>7675928</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7">
+      <c r="A206" s="2">
+        <v>45224</v>
+      </c>
+      <c r="B206">
+        <v>74.74916076660156</v>
+      </c>
+      <c r="C206">
+        <v>75.59364318847656</v>
+      </c>
+      <c r="D206">
+        <v>74.16387939453125</v>
+      </c>
+      <c r="E206">
+        <v>74.74080657958984</v>
+      </c>
+      <c r="F206">
+        <v>71.9224853515625</v>
+      </c>
+      <c r="G206">
+        <v>4618593</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7">
+      <c r="A207" s="2">
+        <v>45225</v>
+      </c>
+      <c r="B207">
+        <v>75.05016326904297</v>
+      </c>
+      <c r="C207">
+        <v>75.71070098876953</v>
+      </c>
+      <c r="D207">
+        <v>73.82942962646484</v>
+      </c>
+      <c r="E207">
+        <v>74.1220703125</v>
+      </c>
+      <c r="F207">
+        <v>71.32707977294922</v>
+      </c>
+      <c r="G207">
+        <v>4623975</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7">
+      <c r="A208" s="2">
+        <v>45226</v>
+      </c>
+      <c r="B208">
+        <v>74.51505279541016</v>
+      </c>
+      <c r="C208">
+        <v>74.61538696289062</v>
+      </c>
+      <c r="D208">
+        <v>72.71739196777344</v>
+      </c>
+      <c r="E208">
+        <v>73.17726135253906</v>
+      </c>
+      <c r="F208">
+        <v>70.41790008544922</v>
+      </c>
+      <c r="G208">
+        <v>3962109</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7">
+      <c r="A209" s="2">
+        <v>45229</v>
+      </c>
+      <c r="B209">
+        <v>73.62876129150391</v>
+      </c>
+      <c r="C209">
+        <v>75.02508544921875</v>
+      </c>
+      <c r="D209">
+        <v>73.39464569091797</v>
+      </c>
+      <c r="E209">
+        <v>74.84949493408203</v>
+      </c>
+      <c r="F209">
+        <v>72.02707672119141</v>
+      </c>
+      <c r="G209">
+        <v>3161626</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7">
+      <c r="A210" s="2">
+        <v>45230</v>
+      </c>
+      <c r="B210">
+        <v>74.81605529785156</v>
+      </c>
+      <c r="C210">
+        <v>76.56354522705078</v>
+      </c>
+      <c r="D210">
+        <v>74.75752258300781</v>
+      </c>
+      <c r="E210">
+        <v>76.04515075683594</v>
+      </c>
+      <c r="F210">
+        <v>73.17764282226562</v>
+      </c>
+      <c r="G210">
+        <v>5555659</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7">
+      <c r="A211" s="2">
+        <v>45231</v>
+      </c>
+      <c r="B211">
+        <v>76.22073364257812</v>
+      </c>
+      <c r="C211">
+        <v>76.37960052490234</v>
+      </c>
+      <c r="D211">
+        <v>74.89130401611328</v>
+      </c>
+      <c r="E211">
+        <v>75.71906280517578</v>
+      </c>
+      <c r="F211">
+        <v>72.86385345458984</v>
+      </c>
+      <c r="G211">
+        <v>4181934</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7">
+      <c r="A212" s="2">
+        <v>45232</v>
+      </c>
+      <c r="B212">
+        <v>76.58863067626953</v>
+      </c>
+      <c r="C212">
+        <v>77.25752258300781</v>
+      </c>
+      <c r="D212">
+        <v>76.12039947509766</v>
+      </c>
+      <c r="E212">
+        <v>77.18227386474609</v>
+      </c>
+      <c r="F212">
+        <v>74.27188873291016</v>
+      </c>
+      <c r="G212">
+        <v>3144404</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7">
+      <c r="A213" s="2">
+        <v>45233</v>
+      </c>
+      <c r="B213">
+        <v>78.19397735595703</v>
+      </c>
+      <c r="C213">
+        <v>79.28093719482422</v>
+      </c>
+      <c r="D213">
+        <v>77.81772613525391</v>
+      </c>
+      <c r="E213">
+        <v>78.47826385498047</v>
+      </c>
+      <c r="F213">
+        <v>75.51901245117188</v>
+      </c>
+      <c r="G213">
+        <v>3266396</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7">
+      <c r="A214" s="2">
+        <v>45236</v>
+      </c>
+      <c r="B214">
+        <v>78.45317840576172</v>
+      </c>
+      <c r="C214">
+        <v>78.52842712402344</v>
+      </c>
+      <c r="D214">
+        <v>77.73411560058594</v>
+      </c>
+      <c r="E214">
+        <v>78.19397735595703</v>
+      </c>
+      <c r="F214">
+        <v>75.24544525146484</v>
+      </c>
+      <c r="G214">
+        <v>2578217</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7">
+      <c r="A215" s="2">
+        <v>45237</v>
+      </c>
+      <c r="B215">
+        <v>77.69230651855469</v>
+      </c>
+      <c r="C215">
+        <v>78.13545227050781</v>
+      </c>
+      <c r="D215">
+        <v>77.39966583251953</v>
+      </c>
+      <c r="E215">
+        <v>77.88461303710938</v>
+      </c>
+      <c r="F215">
+        <v>74.94773864746094</v>
+      </c>
+      <c r="G215">
+        <v>2636223</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7">
+      <c r="A216" s="2">
+        <v>45238</v>
+      </c>
+      <c r="B216">
+        <v>78.09364318847656</v>
+      </c>
+      <c r="C216">
+        <v>78.09364318847656</v>
+      </c>
+      <c r="D216">
+        <v>76.31270599365234</v>
+      </c>
+      <c r="E216">
+        <v>77.19063568115234</v>
+      </c>
+      <c r="F216">
+        <v>74.27993774414062</v>
+      </c>
+      <c r="G216">
+        <v>4142466</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7">
+      <c r="A217" s="2">
+        <v>45239</v>
+      </c>
+      <c r="B217">
+        <v>77.40802764892578</v>
+      </c>
+      <c r="C217">
+        <v>77.93478393554688</v>
+      </c>
+      <c r="D217">
+        <v>76.63043212890625</v>
+      </c>
+      <c r="E217">
+        <v>76.6722412109375</v>
+      </c>
+      <c r="F217">
+        <v>73.78108978271484</v>
+      </c>
+      <c r="G217">
+        <v>2540543</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7">
+      <c r="A218" s="2">
+        <v>45240</v>
+      </c>
+      <c r="B218">
+        <v>76.92308044433594</v>
+      </c>
+      <c r="C218">
+        <v>77.80936431884766</v>
+      </c>
+      <c r="D218">
+        <v>76.6387939453125</v>
+      </c>
+      <c r="E218">
+        <v>77.60033416748047</v>
+      </c>
+      <c r="F218">
+        <v>74.67418670654297</v>
+      </c>
+      <c r="G218">
+        <v>2864420</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7">
+      <c r="A219" s="2">
+        <v>45243</v>
+      </c>
+      <c r="B219">
+        <v>77.50836181640625</v>
+      </c>
+      <c r="C219">
+        <v>77.86788940429688</v>
+      </c>
+      <c r="D219">
+        <v>76.85618591308594</v>
+      </c>
+      <c r="E219">
+        <v>77.5</v>
+      </c>
+      <c r="F219">
+        <v>74.57763671875</v>
+      </c>
+      <c r="G219">
+        <v>2551307</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7">
+      <c r="A220" s="2">
+        <v>45244</v>
+      </c>
+      <c r="B220">
+        <v>78.59532165527344</v>
+      </c>
+      <c r="C220">
+        <v>79.84114074707031</v>
+      </c>
+      <c r="D220">
+        <v>78.53678894042969</v>
+      </c>
+      <c r="E220">
+        <v>79.40635681152344</v>
+      </c>
+      <c r="F220">
+        <v>76.412109375</v>
+      </c>
+      <c r="G220">
+        <v>3972394</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7">
+      <c r="A221" s="2">
+        <v>45245</v>
+      </c>
+      <c r="B221">
+        <v>79.79933166503906</v>
+      </c>
+      <c r="C221">
+        <v>81.27090454101562</v>
+      </c>
+      <c r="D221">
+        <v>79.79933166503906</v>
+      </c>
+      <c r="E221">
+        <v>80.95317840576172</v>
+      </c>
+      <c r="F221">
+        <v>77.90060424804688</v>
+      </c>
+      <c r="G221">
+        <v>4533079</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7">
+      <c r="A222" s="2">
+        <v>45246</v>
+      </c>
+      <c r="B222">
+        <v>80.17558288574219</v>
+      </c>
+      <c r="C222">
+        <v>80.64381408691406</v>
+      </c>
+      <c r="D222">
+        <v>79.35618591308594</v>
+      </c>
+      <c r="E222">
+        <v>80.02508544921875</v>
+      </c>
+      <c r="F222">
+        <v>78.46133422851562</v>
+      </c>
+      <c r="G222">
+        <v>3661913</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7">
+      <c r="A223" s="2">
+        <v>45247</v>
+      </c>
+      <c r="B223">
+        <v>80.48494720458984</v>
+      </c>
+      <c r="C223">
+        <v>80.56020355224609</v>
+      </c>
+      <c r="D223">
+        <v>79.43979644775391</v>
+      </c>
+      <c r="E223">
+        <v>79.71572113037109</v>
+      </c>
+      <c r="F223">
+        <v>78.15801239013672</v>
+      </c>
+      <c r="G223">
+        <v>9073693</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7">
+      <c r="A224" s="2">
+        <v>45250</v>
+      </c>
+      <c r="B224">
+        <v>79.44815826416016</v>
+      </c>
+      <c r="C224">
+        <v>79.64046478271484</v>
+      </c>
+      <c r="D224">
+        <v>78.97993469238281</v>
+      </c>
+      <c r="E224">
+        <v>79.41471862792969</v>
+      </c>
+      <c r="F224">
+        <v>77.86289215087891</v>
+      </c>
+      <c r="G224">
+        <v>3986627</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7">
+      <c r="A225" s="2">
+        <v>45251</v>
+      </c>
+      <c r="B225">
+        <v>79.11370849609375</v>
+      </c>
+      <c r="C225">
+        <v>79.23076629638672</v>
+      </c>
+      <c r="D225">
+        <v>78.3779296875</v>
+      </c>
+      <c r="E225">
+        <v>78.58695983886719</v>
+      </c>
+      <c r="F225">
+        <v>77.05130767822266</v>
+      </c>
+      <c r="G225">
+        <v>3239605</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7">
+      <c r="A226" s="2">
+        <v>45252</v>
+      </c>
+      <c r="B226">
+        <v>79.40635681152344</v>
+      </c>
+      <c r="C226">
+        <v>80.08361053466797</v>
+      </c>
+      <c r="D226">
+        <v>79.1220703125</v>
+      </c>
+      <c r="E226">
+        <v>79.74080657958984</v>
+      </c>
+      <c r="F226">
+        <v>78.18260955810547</v>
+      </c>
+      <c r="G226">
+        <v>2863463</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7">
+      <c r="A227" s="2">
+        <v>45254</v>
+      </c>
+      <c r="B227">
+        <v>79.68227386474609</v>
+      </c>
+      <c r="C227">
+        <v>80.25083923339844</v>
+      </c>
+      <c r="D227">
+        <v>79.53177642822266</v>
+      </c>
+      <c r="E227">
+        <v>80.22575378417969</v>
+      </c>
+      <c r="F227">
+        <v>78.6580810546875</v>
+      </c>
+      <c r="G227">
+        <v>1267640</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7">
+      <c r="A228" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B228">
+        <v>80.26755523681641</v>
+      </c>
+      <c r="C228">
+        <v>81.48829650878906</v>
+      </c>
+      <c r="D228">
+        <v>80.21739196777344</v>
+      </c>
+      <c r="E228">
+        <v>81.16220855712891</v>
+      </c>
+      <c r="F228">
+        <v>79.57623291015625</v>
+      </c>
+      <c r="G228">
+        <v>3939504</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7">
+      <c r="A229" s="2">
+        <v>45258</v>
+      </c>
+      <c r="B229">
+        <v>81.03678894042969</v>
+      </c>
+      <c r="C229">
+        <v>82.85953521728516</v>
+      </c>
+      <c r="D229">
+        <v>80.71906280517578</v>
+      </c>
+      <c r="E229">
+        <v>82.36621856689453</v>
+      </c>
+      <c r="F229">
+        <v>80.75672149658203</v>
+      </c>
+      <c r="G229">
+        <v>5184182</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7">
+      <c r="A230" s="2">
+        <v>45259</v>
+      </c>
+      <c r="B230">
+        <v>82.98494720458984</v>
+      </c>
+      <c r="C230">
+        <v>83.15217590332031</v>
+      </c>
+      <c r="D230">
+        <v>82.04013061523438</v>
+      </c>
+      <c r="E230">
+        <v>82.33277893066406</v>
+      </c>
+      <c r="F230">
+        <v>80.72393035888672</v>
+      </c>
+      <c r="G230">
+        <v>3087594</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7">
+      <c r="A231" s="2">
+        <v>45260</v>
+      </c>
+      <c r="B231">
+        <v>82.47491455078125</v>
+      </c>
+      <c r="C231">
+        <v>83.67893218994141</v>
+      </c>
+      <c r="D231">
+        <v>82.15718841552734</v>
+      </c>
+      <c r="E231">
+        <v>82.83444976806641</v>
+      </c>
+      <c r="F231">
+        <v>81.21579742431641</v>
+      </c>
+      <c r="G231">
+        <v>7190950</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7">
+      <c r="A232" s="2">
+        <v>45261</v>
+      </c>
+      <c r="B232">
+        <v>82.64214324951172</v>
+      </c>
+      <c r="C232">
+        <v>83.78762817382812</v>
+      </c>
+      <c r="D232">
+        <v>82.07357788085938</v>
+      </c>
+      <c r="E232">
+        <v>83.48662567138672</v>
+      </c>
+      <c r="F232">
+        <v>81.85523223876953</v>
+      </c>
+      <c r="G232">
+        <v>3329425</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7">
+      <c r="A233" s="2">
+        <v>45264</v>
+      </c>
+      <c r="B233">
+        <v>83.89632415771484</v>
+      </c>
+      <c r="C233">
+        <v>86.77257537841797</v>
+      </c>
+      <c r="D233">
+        <v>83.80435180664062</v>
+      </c>
+      <c r="E233">
+        <v>86.48829650878906</v>
+      </c>
+      <c r="F233">
+        <v>84.79824829101562</v>
+      </c>
+      <c r="G233">
+        <v>6016119</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7">
+      <c r="A234" s="2">
+        <v>45265</v>
+      </c>
+      <c r="B234">
+        <v>85.91136932373047</v>
+      </c>
+      <c r="C234">
+        <v>86.12039947509766</v>
+      </c>
+      <c r="D234">
+        <v>84.81605529785156</v>
+      </c>
+      <c r="E234">
+        <v>85.02508544921875</v>
+      </c>
+      <c r="F234">
+        <v>83.36362457275391</v>
+      </c>
+      <c r="G234">
+        <v>3675786</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7">
+      <c r="A235" s="2">
+        <v>45266</v>
+      </c>
+      <c r="B235">
+        <v>85.00836181640625</v>
+      </c>
+      <c r="C235">
+        <v>86.60535430908203</v>
+      </c>
+      <c r="D235">
+        <v>84.97491455078125</v>
+      </c>
+      <c r="E235">
+        <v>85.94481658935547</v>
+      </c>
+      <c r="F235">
+        <v>84.26538848876953</v>
+      </c>
+      <c r="G235">
+        <v>4285029</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7">
+      <c r="A236" s="2">
+        <v>45267</v>
+      </c>
+      <c r="B236">
+        <v>86.16220855712891</v>
+      </c>
+      <c r="C236">
+        <v>86.64715576171875</v>
+      </c>
+      <c r="D236">
+        <v>85.61872863769531</v>
+      </c>
+      <c r="E236">
+        <v>86.35451507568359</v>
+      </c>
+      <c r="F236">
+        <v>84.66707611083984</v>
+      </c>
+      <c r="G236">
+        <v>2831650</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7">
+      <c r="A237" s="2">
+        <v>45268</v>
+      </c>
+      <c r="B237">
+        <v>86.42976379394531</v>
+      </c>
+      <c r="C237">
+        <v>87.71739196777344</v>
+      </c>
+      <c r="D237">
+        <v>86.12039947509766</v>
+      </c>
+      <c r="E237">
+        <v>86.42976379394531</v>
+      </c>
+      <c r="F237">
+        <v>84.74085998535156</v>
+      </c>
+      <c r="G237">
+        <v>4119024</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7">
+      <c r="A238" s="2">
+        <v>45271</v>
+      </c>
+      <c r="B238">
+        <v>86.7056884765625</v>
+      </c>
+      <c r="C238">
+        <v>87.13211059570312</v>
+      </c>
+      <c r="D238">
+        <v>85.88629150390625</v>
+      </c>
+      <c r="E238">
+        <v>86.25418090820312</v>
+      </c>
+      <c r="F238">
+        <v>84.56870269775391</v>
+      </c>
+      <c r="G238">
+        <v>4169136</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7">
+      <c r="A239" s="2">
+        <v>45272</v>
+      </c>
+      <c r="B239">
+        <v>86.61370849609375</v>
+      </c>
+      <c r="C239">
+        <v>86.73076629638672</v>
+      </c>
+      <c r="D239">
+        <v>85.56856536865234</v>
+      </c>
+      <c r="E239">
+        <v>85.75251007080078</v>
+      </c>
+      <c r="F239">
+        <v>84.07683563232422</v>
+      </c>
+      <c r="G239">
+        <v>5590463</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7">
+      <c r="A240" s="2">
+        <v>45273</v>
+      </c>
+      <c r="B240">
+        <v>85.28427886962891</v>
+      </c>
+      <c r="C240">
+        <v>87.13211059570312</v>
+      </c>
+      <c r="D240">
+        <v>83.36956787109375</v>
+      </c>
+      <c r="E240">
+        <v>87.11538696289062</v>
+      </c>
+      <c r="F240">
+        <v>85.4130859375</v>
+      </c>
+      <c r="G240">
+        <v>7142512</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7">
+      <c r="A241" s="2">
+        <v>45274</v>
+      </c>
+      <c r="B241">
+        <v>87.77591705322266</v>
+      </c>
+      <c r="C241">
+        <v>89.99163818359375</v>
+      </c>
+      <c r="D241">
+        <v>87.75919342041016</v>
+      </c>
+      <c r="E241">
+        <v>89.49832916259766</v>
+      </c>
+      <c r="F241">
+        <v>87.74945831298828</v>
+      </c>
+      <c r="G241">
+        <v>6894342</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7">
+      <c r="A242" s="2">
+        <v>45275</v>
+      </c>
+      <c r="B242">
+        <v>88.92140197753906</v>
+      </c>
+      <c r="C242">
+        <v>89.90802764892578</v>
+      </c>
+      <c r="D242">
+        <v>88.59532165527344</v>
+      </c>
+      <c r="E242">
+        <v>89.44815826416016</v>
+      </c>
+      <c r="F242">
+        <v>87.70027160644531</v>
+      </c>
+      <c r="G242">
+        <v>13255507</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7">
+      <c r="A243" s="2">
+        <v>45278</v>
+      </c>
+      <c r="B243">
+        <v>89.46488189697266</v>
+      </c>
+      <c r="C243">
+        <v>89.71572113037109</v>
+      </c>
+      <c r="D243">
+        <v>88.344482421875</v>
+      </c>
+      <c r="E243">
+        <v>88.52006530761719</v>
+      </c>
+      <c r="F243">
+        <v>86.79031372070312</v>
+      </c>
+      <c r="G243">
+        <v>3616704</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7">
+      <c r="A244" s="2">
+        <v>45279</v>
+      </c>
+      <c r="B244">
+        <v>88.93812561035156</v>
+      </c>
+      <c r="C244">
+        <v>89.25585174560547</v>
+      </c>
+      <c r="D244">
+        <v>88.53678894042969</v>
+      </c>
+      <c r="E244">
+        <v>88.83779144287109</v>
+      </c>
+      <c r="F244">
+        <v>87.10182952880859</v>
+      </c>
+      <c r="G244">
+        <v>3151101</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7">
+      <c r="A245" s="2">
+        <v>45280</v>
+      </c>
+      <c r="B245">
+        <v>88.46154022216797</v>
+      </c>
+      <c r="C245">
+        <v>88.85451507568359</v>
+      </c>
+      <c r="D245">
+        <v>86.64715576171875</v>
+      </c>
+      <c r="E245">
+        <v>86.68060302734375</v>
+      </c>
+      <c r="F245">
+        <v>84.98679351806641</v>
+      </c>
+      <c r="G245">
+        <v>3883890</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7">
+      <c r="A246" s="2">
+        <v>45281</v>
+      </c>
+      <c r="B246">
+        <v>87.14046478271484</v>
+      </c>
+      <c r="C246">
+        <v>88.31939697265625</v>
+      </c>
+      <c r="D246">
+        <v>87.04849243164062</v>
+      </c>
+      <c r="E246">
+        <v>88.26087188720703</v>
+      </c>
+      <c r="F246">
+        <v>86.53618621826172</v>
+      </c>
+      <c r="G246">
+        <v>2624263</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7">
+      <c r="A247" s="2">
+        <v>45282</v>
+      </c>
+      <c r="B247">
+        <v>88.52842712402344</v>
+      </c>
+      <c r="C247">
+        <v>89.80769348144531</v>
+      </c>
+      <c r="D247">
+        <v>88.41973114013672</v>
+      </c>
+      <c r="E247">
+        <v>88.90467834472656</v>
+      </c>
+      <c r="F247">
+        <v>87.16741180419922</v>
+      </c>
+      <c r="G247">
+        <v>2728913</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7">
+      <c r="A248" s="2">
+        <v>45286</v>
+      </c>
+      <c r="B248">
+        <v>88.87960052490234</v>
+      </c>
+      <c r="C248">
+        <v>90.7943115234375</v>
+      </c>
+      <c r="D248">
+        <v>88.85451507568359</v>
+      </c>
+      <c r="E248">
+        <v>90.39297485351562</v>
+      </c>
+      <c r="F248">
+        <v>88.62662506103516</v>
+      </c>
+      <c r="G248">
+        <v>3332176</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7">
+      <c r="A249" s="2">
+        <v>45287</v>
+      </c>
+      <c r="B249">
+        <v>90.30100250244141</v>
+      </c>
+      <c r="C249">
+        <v>91.22073364257812</v>
+      </c>
+      <c r="D249">
+        <v>90.033447265625</v>
+      </c>
+      <c r="E249">
+        <v>90.91973114013672</v>
+      </c>
+      <c r="F249">
+        <v>89.14308929443359</v>
+      </c>
+      <c r="G249">
+        <v>2922785</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7">
+      <c r="A250" s="2">
+        <v>45288</v>
+      </c>
+      <c r="B250">
+        <v>90.85284423828125</v>
+      </c>
+      <c r="C250">
+        <v>92.12374877929688</v>
+      </c>
+      <c r="D250">
+        <v>90.844482421875</v>
+      </c>
+      <c r="E250">
+        <v>91.71405029296875</v>
+      </c>
+      <c r="F250">
+        <v>89.92188262939453</v>
+      </c>
+      <c r="G250">
+        <v>3360282</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7">
+      <c r="A251" s="2">
+        <v>45289</v>
+      </c>
+      <c r="B251">
+        <v>91.55518341064453</v>
+      </c>
+      <c r="C251">
+        <v>91.93979644775391</v>
+      </c>
+      <c r="D251">
+        <v>90.92809295654297</v>
+      </c>
+      <c r="E251">
+        <v>91.40467834472656</v>
+      </c>
+      <c r="F251">
+        <v>89.61856079101562</v>
+      </c>
+      <c r="G251">
+        <v>2887622</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7">
+      <c r="A252" s="2">
+        <v>45293</v>
+      </c>
+      <c r="B252">
+        <v>90.81939697265625</v>
+      </c>
+      <c r="C252">
+        <v>92.52508544921875</v>
+      </c>
+      <c r="D252">
+        <v>90.67726135253906</v>
+      </c>
+      <c r="E252">
+        <v>91.97324371337891</v>
+      </c>
+      <c r="F252">
+        <v>90.17601776123047</v>
+      </c>
+      <c r="G252">
+        <v>3321053</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7">
+      <c r="A253" s="2">
+        <v>45294</v>
+      </c>
+      <c r="B253">
+        <v>91.32942962646484</v>
+      </c>
+      <c r="C253">
+        <v>91.52173614501953</v>
+      </c>
+      <c r="D253">
+        <v>89.29766082763672</v>
+      </c>
+      <c r="E253">
+        <v>90.12541961669922</v>
+      </c>
+      <c r="F253">
+        <v>88.36429595947266</v>
+      </c>
+      <c r="G253">
+        <v>3547575</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7">
+      <c r="A254" s="2">
+        <v>45295</v>
+      </c>
+      <c r="B254">
+        <v>90.36788940429688</v>
+      </c>
+      <c r="C254">
+        <v>91.42140197753906</v>
+      </c>
+      <c r="D254">
+        <v>90.05852508544922</v>
+      </c>
+      <c r="E254">
+        <v>90.44314575195312</v>
+      </c>
+      <c r="F254">
+        <v>88.67581176757812</v>
+      </c>
+      <c r="G254">
+        <v>3319976</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7">
+      <c r="A255" s="2">
+        <v>45296</v>
+      </c>
+      <c r="B255">
+        <v>90.28427886962891</v>
+      </c>
+      <c r="C255">
+        <v>91.54682159423828</v>
+      </c>
+      <c r="D255">
+        <v>89.92475128173828</v>
+      </c>
+      <c r="E255">
+        <v>90.7943115234375</v>
+      </c>
+      <c r="F255">
+        <v>89.02011871337891</v>
+      </c>
+      <c r="G255">
+        <v>1991579</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7">
+      <c r="A256" s="2">
+        <v>45299</v>
+      </c>
+      <c r="B256">
+        <v>90.51839447021484</v>
+      </c>
+      <c r="C256">
+        <v>91.10367584228516</v>
+      </c>
+      <c r="D256">
+        <v>89.95819091796875</v>
+      </c>
+      <c r="E256">
+        <v>91.02006530761719</v>
+      </c>
+      <c r="F256">
+        <v>89.24146270751953</v>
+      </c>
+      <c r="G256">
+        <v>2535042</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7">
+      <c r="A257" s="2">
+        <v>45300</v>
+      </c>
+      <c r="B257">
+        <v>90.46822357177734</v>
+      </c>
+      <c r="C257">
+        <v>91.38796234130859</v>
+      </c>
+      <c r="D257">
+        <v>89.75752258300781</v>
+      </c>
+      <c r="E257">
+        <v>91.22073364257812</v>
+      </c>
+      <c r="F257">
+        <v>89.43820953369141</v>
+      </c>
+      <c r="G257">
+        <v>2939768</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7">
+      <c r="A258" s="2">
+        <v>45301</v>
+      </c>
+      <c r="B258">
+        <v>91.15384674072266</v>
+      </c>
+      <c r="C258">
+        <v>91.23745727539062</v>
+      </c>
+      <c r="D258">
+        <v>90.16722106933594</v>
+      </c>
+      <c r="E258">
+        <v>90.55184173583984</v>
+      </c>
+      <c r="F258">
+        <v>88.78238677978516</v>
+      </c>
+      <c r="G258">
+        <v>2391761</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7">
+      <c r="A259" s="2">
+        <v>45302</v>
+      </c>
+      <c r="B259">
+        <v>90.55184173583984</v>
+      </c>
+      <c r="C259">
+        <v>91.13712310791016</v>
+      </c>
+      <c r="D259">
+        <v>89.64046478271484</v>
+      </c>
+      <c r="E259">
+        <v>91.07023620605469</v>
+      </c>
+      <c r="F259">
+        <v>89.2906494140625</v>
+      </c>
+      <c r="G259">
+        <v>3212217</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7">
+      <c r="A260" s="2">
+        <v>45303</v>
+      </c>
+      <c r="B260">
+        <v>91.48829650878906</v>
+      </c>
+      <c r="C260">
+        <v>92.10702514648438</v>
+      </c>
+      <c r="D260">
+        <v>90.20903015136719</v>
+      </c>
+      <c r="E260">
+        <v>90.40133666992188</v>
+      </c>
+      <c r="F260">
+        <v>88.63482666015625</v>
+      </c>
+      <c r="G260">
+        <v>3490526</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7">
+      <c r="A261" s="2">
+        <v>45307</v>
+      </c>
+      <c r="B261">
+        <v>90.02508544921875</v>
+      </c>
+      <c r="C261">
+        <v>90.35953521728516</v>
+      </c>
+      <c r="D261">
+        <v>89.19732666015625</v>
+      </c>
+      <c r="E261">
+        <v>90</v>
+      </c>
+      <c r="F261">
+        <v>88.2413330078125</v>
+      </c>
+      <c r="G261">
+        <v>3631534</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7">
+      <c r="A262" s="2">
+        <v>45308</v>
+      </c>
+      <c r="B262">
+        <v>89.33946228027344</v>
+      </c>
+      <c r="C262">
+        <v>90.0167236328125</v>
+      </c>
+      <c r="D262">
+        <v>88.23578643798828</v>
+      </c>
+      <c r="E262">
+        <v>88.69564819335938</v>
+      </c>
+      <c r="F262">
+        <v>86.96246337890625</v>
+      </c>
+      <c r="G262">
+        <v>3156842</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7">
+      <c r="A263" s="2">
+        <v>45309</v>
+      </c>
+      <c r="B263">
+        <v>88.90467834472656</v>
+      </c>
+      <c r="C263">
+        <v>89.24748992919922</v>
+      </c>
+      <c r="D263">
+        <v>88.07691955566406</v>
+      </c>
+      <c r="E263">
+        <v>88.99665832519531</v>
+      </c>
+      <c r="F263">
+        <v>87.25759124755859</v>
+      </c>
+      <c r="G263">
+        <v>2981748</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7">
+      <c r="A264" s="2">
+        <v>45310</v>
+      </c>
+      <c r="B264">
+        <v>89.24748992919922</v>
+      </c>
+      <c r="C264">
+        <v>90.60200500488281</v>
+      </c>
+      <c r="D264">
+        <v>87.87625122070312</v>
+      </c>
+      <c r="E264">
+        <v>90.10033416748047</v>
+      </c>
+      <c r="F264">
+        <v>88.33970642089844</v>
+      </c>
+      <c r="G264">
+        <v>3910322</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7">
+      <c r="A265" s="2">
+        <v>45313</v>
+      </c>
+      <c r="B265">
+        <v>90.71906280517578</v>
+      </c>
+      <c r="C265">
+        <v>91.47993469238281</v>
+      </c>
+      <c r="D265">
+        <v>89.79933166503906</v>
+      </c>
+      <c r="E265">
+        <v>90.31772613525391</v>
+      </c>
+      <c r="F265">
+        <v>88.55284881591797</v>
+      </c>
+      <c r="G265">
+        <v>5879656</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7">
+      <c r="A266" s="2">
+        <v>45314</v>
+      </c>
+      <c r="B266">
+        <v>84.33110046386719</v>
+      </c>
+      <c r="C266">
+        <v>84.33110046386719</v>
+      </c>
+      <c r="D266">
+        <v>78.68729400634766</v>
+      </c>
+      <c r="E266">
+        <v>80.35117340087891</v>
+      </c>
+      <c r="F266">
+        <v>78.78105163574219</v>
+      </c>
+      <c r="G266">
+        <v>32544236</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7">
+      <c r="A267" s="2">
+        <v>45315</v>
+      </c>
+      <c r="B267">
+        <v>80.80267333984375</v>
+      </c>
+      <c r="C267">
+        <v>81.13712310791016</v>
+      </c>
+      <c r="D267">
+        <v>77.533447265625</v>
+      </c>
+      <c r="E267">
+        <v>77.95986938476562</v>
+      </c>
+      <c r="F267">
+        <v>76.43647003173828</v>
+      </c>
+      <c r="G267">
+        <v>11202454</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7">
+      <c r="A268" s="2">
+        <v>45316</v>
+      </c>
+      <c r="B268">
+        <v>78.41136932373047</v>
+      </c>
+      <c r="C268">
+        <v>80.50167083740234</v>
+      </c>
+      <c r="D268">
+        <v>78.26923370361328</v>
+      </c>
+      <c r="E268">
+        <v>80.25083923339844</v>
+      </c>
+      <c r="F268">
+        <v>78.68267822265625</v>
+      </c>
+      <c r="G268">
+        <v>7322988</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7">
+      <c r="A269" s="2">
+        <v>45317</v>
+      </c>
+      <c r="B269">
+        <v>80.45150756835938</v>
+      </c>
+      <c r="C269">
+        <v>81.02006530761719</v>
+      </c>
+      <c r="D269">
+        <v>80.09197235107422</v>
+      </c>
+      <c r="E269">
+        <v>80.25919342041016</v>
+      </c>
+      <c r="F269">
+        <v>78.69086456298828</v>
+      </c>
+      <c r="G269">
+        <v>4449359</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7">
+      <c r="A270" s="2">
+        <v>45320</v>
+      </c>
+      <c r="B270">
+        <v>80.26755523681641</v>
+      </c>
+      <c r="C270">
+        <v>81.01170349121094</v>
+      </c>
+      <c r="D270">
+        <v>79.79933166503906</v>
+      </c>
+      <c r="E270">
+        <v>80.58528137207031</v>
+      </c>
+      <c r="F270">
+        <v>79.01058197021484</v>
+      </c>
+      <c r="G270">
+        <v>4544800</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7">
+      <c r="A271" s="2">
+        <v>45321</v>
+      </c>
+      <c r="B271">
+        <v>80.40969848632812</v>
+      </c>
+      <c r="C271">
+        <v>80.69397735595703</v>
+      </c>
+      <c r="D271">
+        <v>79.24748992919922</v>
+      </c>
+      <c r="E271">
+        <v>80.05852508544922</v>
+      </c>
+      <c r="F271">
+        <v>78.49411773681641</v>
+      </c>
+      <c r="G271">
+        <v>3827798</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7">
+      <c r="A272" s="2">
+        <v>45322</v>
+      </c>
+      <c r="B272">
+        <v>80.21739196777344</v>
+      </c>
+      <c r="C272">
+        <v>80.21739196777344</v>
+      </c>
+      <c r="D272">
+        <v>78.72909545898438</v>
+      </c>
+      <c r="E272">
+        <v>78.88796234130859</v>
+      </c>
+      <c r="F272">
+        <v>77.34642791748047</v>
+      </c>
+      <c r="G272">
+        <v>8260533</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7">
+      <c r="A273" s="2">
+        <v>45323</v>
+      </c>
+      <c r="B273">
+        <v>78.92140197753906</v>
+      </c>
+      <c r="C273">
+        <v>80.28427886962891</v>
+      </c>
+      <c r="D273">
+        <v>78.54515075683594</v>
+      </c>
+      <c r="E273">
+        <v>80.19230651855469</v>
+      </c>
+      <c r="F273">
+        <v>78.62528228759766</v>
+      </c>
+      <c r="G273">
+        <v>3943571</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7">
+      <c r="A274" s="2">
+        <v>45324</v>
+      </c>
+      <c r="B274">
+        <v>79.66555023193359</v>
+      </c>
+      <c r="C274">
+        <v>79.76588439941406</v>
+      </c>
+      <c r="D274">
+        <v>78.83779144287109</v>
+      </c>
+      <c r="E274">
+        <v>79.32273864746094</v>
+      </c>
+      <c r="F274">
+        <v>77.77271270751953</v>
+      </c>
+      <c r="G274">
+        <v>4440030</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7">
+      <c r="A275" s="2">
+        <v>45327</v>
+      </c>
+      <c r="B275">
+        <v>78.80435180664062</v>
+      </c>
+      <c r="C275">
+        <v>78.80435180664062</v>
+      </c>
+      <c r="D275">
+        <v>77.40802764892578</v>
+      </c>
+      <c r="E275">
+        <v>77.533447265625</v>
+      </c>
+      <c r="F275">
+        <v>76.01837921142578</v>
+      </c>
+      <c r="G275">
+        <v>5354372</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7">
+      <c r="A276" s="2">
+        <v>45328</v>
+      </c>
+      <c r="B276">
+        <v>77.54180908203125</v>
+      </c>
+      <c r="C276">
+        <v>78.46990203857422</v>
+      </c>
+      <c r="D276">
+        <v>77.25752258300781</v>
+      </c>
+      <c r="E276">
+        <v>78.39464569091797</v>
+      </c>
+      <c r="F276">
+        <v>76.86275482177734</v>
+      </c>
+      <c r="G276">
+        <v>4453186</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7">
+      <c r="A277" s="2">
+        <v>45329</v>
+      </c>
+      <c r="B277">
+        <v>79.09699249267578</v>
+      </c>
+      <c r="C277">
+        <v>79.18896484375</v>
+      </c>
+      <c r="D277">
+        <v>78.17726135253906</v>
+      </c>
+      <c r="E277">
+        <v>78.46154022216797</v>
+      </c>
+      <c r="F277">
+        <v>76.92833709716797</v>
+      </c>
+      <c r="G277">
+        <v>4521956</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7">
+      <c r="A278" s="2">
+        <v>45330</v>
+      </c>
+      <c r="B278">
+        <v>78.72073364257812</v>
+      </c>
+      <c r="C278">
+        <v>78.91304016113281</v>
+      </c>
+      <c r="D278">
+        <v>77.5167236328125</v>
+      </c>
+      <c r="E278">
+        <v>77.92642211914062</v>
+      </c>
+      <c r="F278">
+        <v>76.40367889404297</v>
+      </c>
+      <c r="G278">
+        <v>4741303</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7">
+      <c r="A279" s="2">
+        <v>45331</v>
+      </c>
+      <c r="B279">
+        <v>77.92642211914062</v>
+      </c>
+      <c r="C279">
+        <v>78.01003265380859</v>
+      </c>
+      <c r="D279">
+        <v>77.24916076660156</v>
+      </c>
+      <c r="E279">
+        <v>77.67558288574219</v>
+      </c>
+      <c r="F279">
+        <v>76.15773773193359</v>
+      </c>
+      <c r="G279">
+        <v>4388244</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7">
+      <c r="A280" s="2">
+        <v>45334</v>
+      </c>
+      <c r="B280">
+        <v>77.85953521728516</v>
+      </c>
+      <c r="C280">
+        <v>79.48160552978516</v>
+      </c>
+      <c r="D280">
+        <v>77.80100250244141</v>
+      </c>
+      <c r="E280">
+        <v>79.1220703125</v>
+      </c>
+      <c r="F280">
+        <v>77.57596588134766</v>
+      </c>
+      <c r="G280">
+        <v>4893673</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7">
+      <c r="A281" s="2">
+        <v>45335</v>
+      </c>
+      <c r="B281">
+        <v>78.01003265380859</v>
+      </c>
+      <c r="C281">
+        <v>78.58695983886719</v>
+      </c>
+      <c r="D281">
+        <v>76.41304016113281</v>
+      </c>
+      <c r="E281">
+        <v>77.47491455078125</v>
+      </c>
+      <c r="F281">
+        <v>75.96099090576172</v>
+      </c>
+      <c r="G281">
+        <v>5496338</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7">
+      <c r="A282" s="2">
+        <v>45336</v>
+      </c>
+      <c r="B282">
+        <v>77.75919342041016</v>
+      </c>
+      <c r="C282">
+        <v>77.95986938476562</v>
+      </c>
+      <c r="D282">
+        <v>77.06521606445312</v>
+      </c>
+      <c r="E282">
+        <v>77.27424621582031</v>
+      </c>
+      <c r="F282">
+        <v>75.76424407958984</v>
+      </c>
+      <c r="G282">
+        <v>6024132</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7">
+      <c r="A283" s="2">
+        <v>45337</v>
+      </c>
+      <c r="B283">
+        <v>76.50502014160156</v>
+      </c>
+      <c r="C283">
+        <v>77.39130401611328</v>
+      </c>
+      <c r="D283">
+        <v>76.17893218994141</v>
+      </c>
+      <c r="E283">
+        <v>77.24080657958984</v>
+      </c>
+      <c r="F283">
+        <v>77.24080657958984</v>
+      </c>
+      <c r="G283">
+        <v>4559391</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7">
+      <c r="A284" s="2">
+        <v>45338</v>
+      </c>
+      <c r="B284">
+        <v>76.80602264404297</v>
+      </c>
+      <c r="C284">
+        <v>76.96488189697266</v>
+      </c>
+      <c r="D284">
+        <v>76.26254272460938</v>
+      </c>
+      <c r="E284">
+        <v>76.29598999023438</v>
+      </c>
+      <c r="F284">
+        <v>76.29598999023438</v>
+      </c>
+      <c r="G284">
+        <v>5345522</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7">
+      <c r="A285" s="2">
+        <v>45342</v>
+      </c>
+      <c r="B285">
+        <v>76.17057037353516</v>
+      </c>
+      <c r="C285">
+        <v>77.33277893066406</v>
+      </c>
+      <c r="D285">
+        <v>75.68561553955078</v>
+      </c>
+      <c r="E285">
+        <v>76.77257537841797</v>
+      </c>
+      <c r="F285">
+        <v>76.77257537841797</v>
+      </c>
+      <c r="G285">
+        <v>5174614</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7">
+      <c r="A286" s="2">
+        <v>45343</v>
+      </c>
+      <c r="B286">
+        <v>76.61370849609375</v>
+      </c>
+      <c r="C286">
+        <v>76.89799499511719</v>
+      </c>
+      <c r="D286">
+        <v>76.07023620605469</v>
+      </c>
+      <c r="E286">
+        <v>76.68060302734375</v>
+      </c>
+      <c r="F286">
+        <v>76.68060302734375</v>
+      </c>
+      <c r="G286">
+        <v>4065563</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7">
+      <c r="A287" s="2">
+        <v>45344</v>
+      </c>
+      <c r="B287">
+        <v>76.55518341064453</v>
+      </c>
+      <c r="C287">
+        <v>77.27424621582031</v>
+      </c>
+      <c r="D287">
+        <v>76.20401000976562</v>
+      </c>
+      <c r="E287">
+        <v>77.11538696289062</v>
+      </c>
+      <c r="F287">
+        <v>77.11538696289062</v>
+      </c>
+      <c r="G287">
+        <v>5083837</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7">
+      <c r="A288" s="2">
+        <v>45345</v>
+      </c>
+      <c r="B288">
+        <v>77.24916076660156</v>
+      </c>
+      <c r="C288">
+        <v>77.70903015136719</v>
+      </c>
+      <c r="D288">
+        <v>76.84782409667969</v>
+      </c>
+      <c r="E288">
+        <v>77.40802764892578</v>
+      </c>
+      <c r="F288">
+        <v>77.40802764892578</v>
+      </c>
+      <c r="G288">
+        <v>3774217</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7">
+      <c r="A289" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B289">
+        <v>77.07357788085938</v>
+      </c>
+      <c r="C289">
+        <v>77.34114074707031</v>
+      </c>
+      <c r="D289">
+        <v>76.45484924316406</v>
+      </c>
+      <c r="E289">
+        <v>76.77257537841797</v>
+      </c>
+      <c r="F289">
+        <v>76.77257537841797</v>
+      </c>
+      <c r="G289">
+        <v>3914388</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7">
+      <c r="A290" s="2">
+        <v>45349</v>
+      </c>
+      <c r="B290">
+        <v>76.92308044433594</v>
+      </c>
+      <c r="C290">
+        <v>77.21572113037109</v>
+      </c>
+      <c r="D290">
+        <v>76.48829650878906</v>
+      </c>
+      <c r="E290">
+        <v>77.17391204833984</v>
+      </c>
+      <c r="F290">
+        <v>77.17391204833984</v>
+      </c>
+      <c r="G290">
+        <v>2736807</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7">
+      <c r="A291" s="2">
+        <v>45350</v>
+      </c>
+      <c r="B291">
+        <v>76.92308044433594</v>
+      </c>
+      <c r="C291">
+        <v>77.44983673095703</v>
+      </c>
+      <c r="D291">
+        <v>76.43812561035156</v>
+      </c>
+      <c r="E291">
+        <v>76.47157287597656</v>
+      </c>
+      <c r="F291">
+        <v>76.47157287597656</v>
+      </c>
+      <c r="G291">
+        <v>3543030</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7">
+      <c r="A292" s="2">
+        <v>45351</v>
+      </c>
+      <c r="B292">
+        <v>76.92308044433594</v>
+      </c>
+      <c r="C292">
+        <v>77.16555023193359</v>
+      </c>
+      <c r="D292">
+        <v>76.38796234130859</v>
+      </c>
+      <c r="E292">
+        <v>77.02341461181641</v>
+      </c>
+      <c r="F292">
+        <v>77.02341461181641</v>
+      </c>
+      <c r="G292">
+        <v>6169446</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7">
+      <c r="A293" s="2">
+        <v>45352</v>
+      </c>
+      <c r="B293">
+        <v>76.95652008056641</v>
+      </c>
+      <c r="C293">
+        <v>76.95652008056641</v>
+      </c>
+      <c r="D293">
+        <v>75.99497985839844</v>
+      </c>
+      <c r="E293">
+        <v>76.80602264404297</v>
+      </c>
+      <c r="F293">
+        <v>76.80602264404297</v>
+      </c>
+      <c r="G293">
+        <v>4064128</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7">
+      <c r="A294" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B294">
+        <v>76.17057037353516</v>
+      </c>
+      <c r="C294">
+        <v>76.79766082763672</v>
+      </c>
+      <c r="D294">
+        <v>75.65217590332031</v>
+      </c>
+      <c r="E294">
+        <v>76.45484924316406</v>
+      </c>
+      <c r="F294">
+        <v>76.45484924316406</v>
+      </c>
+      <c r="G294">
+        <v>6678703</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7">
+      <c r="A295" s="2">
+        <v>45356</v>
+      </c>
+      <c r="B295">
+        <v>76.64715576171875</v>
+      </c>
+      <c r="C295">
+        <v>78.08528137207031</v>
+      </c>
+      <c r="D295">
+        <v>76.56354522705078</v>
+      </c>
+      <c r="E295">
+        <v>77.5</v>
+      </c>
+      <c r="F295">
+        <v>77.5</v>
+      </c>
+      <c r="G295">
+        <v>5251636</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7">
+      <c r="A296" s="2">
+        <v>45357</v>
+      </c>
+      <c r="B296">
+        <v>78.16889953613281</v>
+      </c>
+      <c r="C296">
+        <v>78.33612060546875</v>
+      </c>
+      <c r="D296">
+        <v>76.86454772949219</v>
+      </c>
+      <c r="E296">
+        <v>77.35785675048828</v>
+      </c>
+      <c r="F296">
+        <v>77.35785675048828</v>
+      </c>
+      <c r="G296">
+        <v>3591349</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7">
+      <c r="A297" s="2">
+        <v>45358</v>
+      </c>
+      <c r="B297">
+        <v>77.80100250244141</v>
+      </c>
+      <c r="C297">
+        <v>78.01003265380859</v>
+      </c>
+      <c r="D297">
+        <v>77.01505279541016</v>
+      </c>
+      <c r="E297">
+        <v>77.44147491455078</v>
+      </c>
+      <c r="F297">
+        <v>77.44147491455078</v>
+      </c>
+      <c r="G297">
+        <v>3751613</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7">
+      <c r="A298" s="2">
+        <v>45359</v>
+      </c>
+      <c r="B298">
+        <v>78.16889953613281</v>
+      </c>
+      <c r="C298">
+        <v>79.21405029296875</v>
+      </c>
+      <c r="D298">
+        <v>77.90969848632812</v>
+      </c>
+      <c r="E298">
+        <v>78.51170349121094</v>
+      </c>
+      <c r="F298">
+        <v>78.51170349121094</v>
+      </c>
+      <c r="G298">
+        <v>4925846</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7">
+      <c r="A299" s="2">
+        <v>45362</v>
+      </c>
+      <c r="B299">
+        <v>78.57859802246094</v>
+      </c>
+      <c r="C299">
+        <v>78.97993469238281</v>
+      </c>
+      <c r="D299">
+        <v>78.14381408691406</v>
+      </c>
+      <c r="E299">
+        <v>78.63712310791016</v>
+      </c>
+      <c r="F299">
+        <v>78.63712310791016</v>
+      </c>
+      <c r="G299">
+        <v>4206571</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7">
+      <c r="A300" s="2">
+        <v>45363</v>
+      </c>
+      <c r="B300">
+        <v>83.77926635742188</v>
+      </c>
+      <c r="C300">
+        <v>84.32273864746094</v>
+      </c>
+      <c r="D300">
+        <v>81.22909545898438</v>
+      </c>
+      <c r="E300">
+        <v>82.54180908203125</v>
+      </c>
+      <c r="F300">
+        <v>82.54180908203125</v>
+      </c>
+      <c r="G300">
+        <v>16737302</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7">
+      <c r="A301" s="2">
+        <v>45364</v>
+      </c>
+      <c r="B301">
+        <v>83.3779296875</v>
+      </c>
+      <c r="C301">
+        <v>87.03177642822266</v>
+      </c>
+      <c r="D301">
+        <v>82.94314575195312</v>
+      </c>
+      <c r="E301">
+        <v>87.01505279541016</v>
+      </c>
+      <c r="F301">
+        <v>87.01505279541016</v>
+      </c>
+      <c r="G301">
+        <v>12935338</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7">
+      <c r="A302" s="2">
+        <v>45365</v>
+      </c>
+      <c r="B302">
+        <v>86.42140197753906</v>
+      </c>
+      <c r="C302">
+        <v>87.40802764892578</v>
+      </c>
+      <c r="D302">
+        <v>85.48494720458984</v>
+      </c>
+      <c r="E302">
+        <v>86.22073364257812</v>
+      </c>
+      <c r="F302">
+        <v>86.22073364257812</v>
+      </c>
+      <c r="G302">
+        <v>8282539</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7">
+      <c r="A303" s="2">
+        <v>45366</v>
+      </c>
+      <c r="B303">
+        <v>86.12039947509766</v>
+      </c>
+      <c r="C303">
+        <v>88.24414825439453</v>
+      </c>
+      <c r="D303">
+        <v>85.93645477294922</v>
+      </c>
+      <c r="E303">
+        <v>87.79264068603516</v>
+      </c>
+      <c r="F303">
+        <v>87.79264068603516</v>
+      </c>
+      <c r="G303">
+        <v>32098966</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7">
+      <c r="A304" s="2">
+        <v>45369</v>
+      </c>
+      <c r="B304">
+        <v>87.39966583251953</v>
+      </c>
+      <c r="C304">
+        <v>88.87123870849609</v>
+      </c>
+      <c r="D304">
+        <v>87.30769348144531</v>
+      </c>
+      <c r="E304">
+        <v>87.62541961669922</v>
+      </c>
+      <c r="F304">
+        <v>87.62541961669922</v>
+      </c>
+      <c r="G304">
+        <v>6622491</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7">
+      <c r="A305" s="2">
+        <v>45370</v>
+      </c>
+      <c r="B305">
+        <v>88.45317840576172</v>
+      </c>
+      <c r="C305">
+        <v>89.46488189697266</v>
+      </c>
+      <c r="D305">
+        <v>87.41638946533203</v>
+      </c>
+      <c r="E305">
+        <v>88.06020355224609</v>
+      </c>
+      <c r="F305">
+        <v>88.06020355224609</v>
+      </c>
+      <c r="G305">
+        <v>6987869</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7">
+      <c r="A306" s="2">
+        <v>45371</v>
+      </c>
+      <c r="B306">
+        <v>87.78427886962891</v>
+      </c>
+      <c r="C306">
+        <v>91.22073364257812</v>
+      </c>
+      <c r="D306">
+        <v>87.32441711425781</v>
+      </c>
+      <c r="E306">
+        <v>90.39297485351562</v>
+      </c>
+      <c r="F306">
+        <v>90.39297485351562</v>
+      </c>
+      <c r="G306">
+        <v>8390299</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7">
+      <c r="A307" s="2">
+        <v>45372</v>
+      </c>
+      <c r="B307">
+        <v>90.46822357177734</v>
+      </c>
+      <c r="C307">
+        <v>91.29598999023438</v>
+      </c>
+      <c r="D307">
+        <v>90.12541961669922</v>
+      </c>
+      <c r="E307">
+        <v>90.19230651855469</v>
+      </c>
+      <c r="F307">
+        <v>90.19230651855469</v>
+      </c>
+      <c r="G307">
+        <v>7886663</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7">
+      <c r="A308" s="2">
+        <v>45373</v>
+      </c>
+      <c r="B308">
+        <v>89.966552734375</v>
+      </c>
+      <c r="C308">
+        <v>90.40133666992188</v>
+      </c>
+      <c r="D308">
+        <v>89.25585174560547</v>
+      </c>
+      <c r="E308">
+        <v>89.28093719482422</v>
+      </c>
+      <c r="F308">
+        <v>89.28093719482422</v>
+      </c>
+      <c r="G308">
+        <v>5321243</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7">
+      <c r="A309" s="2">
+        <v>45376</v>
+      </c>
+      <c r="B309">
+        <v>88.54515075683594</v>
+      </c>
+      <c r="C309">
+        <v>89.30602264404297</v>
+      </c>
+      <c r="D309">
+        <v>87.60869598388672</v>
+      </c>
+      <c r="E309">
+        <v>87.65885925292969</v>
+      </c>
+      <c r="F309">
+        <v>87.65885925292969</v>
+      </c>
+      <c r="G309">
+        <v>6680019</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7">
+      <c r="A310" s="2">
+        <v>45377</v>
+      </c>
+      <c r="B310">
+        <v>87.00669097900391</v>
+      </c>
+      <c r="C310">
+        <v>87.5167236328125</v>
+      </c>
+      <c r="D310">
+        <v>85.61872863769531</v>
+      </c>
+      <c r="E310">
+        <v>85.81103515625</v>
+      </c>
+      <c r="F310">
+        <v>85.81103515625</v>
+      </c>
+      <c r="G310">
+        <v>7279693</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7">
+      <c r="A311" s="2">
+        <v>45378</v>
+      </c>
+      <c r="B311">
+        <v>86.12039947509766</v>
+      </c>
+      <c r="C311">
+        <v>87.59197235107422</v>
+      </c>
+      <c r="D311">
+        <v>86.11203765869141</v>
+      </c>
+      <c r="E311">
+        <v>87.44983673095703</v>
+      </c>
+      <c r="F311">
+        <v>87.44983673095703</v>
+      </c>
+      <c r="G311">
+        <v>4641676</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7">
+      <c r="A312" s="2">
         <v>45379</v>
       </c>
-      <c r="B21">
+      <c r="B312">
         <v>87.466552734375</v>
       </c>
-      <c r="C21">
+      <c r="C312">
         <v>88.84615325927734</v>
       </c>
-      <c r="D21">
+      <c r="D312">
         <v>87.44983673095703</v>
       </c>
-      <c r="E21">
+      <c r="E312">
         <v>88.68729400634766</v>
       </c>
-      <c r="F21">
+      <c r="F312">
         <v>88.68729400634766</v>
       </c>
-      <c r="G21">
+      <c r="G312">
         <v>5245776</v>
       </c>
     </row>
